--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8391184789979521</v>
+        <v>0.8391184789979534</v>
       </c>
       <c r="D2">
         <v>1.016644957960377</v>
       </c>
       <c r="E2">
-        <v>0.8652704465605039</v>
+        <v>0.8652704465605052</v>
       </c>
       <c r="F2">
-        <v>0.8047469089851816</v>
+        <v>0.8047469089851832</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.029864741242099</v>
       </c>
       <c r="J2">
-        <v>0.8674675094974875</v>
+        <v>0.8674675094974889</v>
       </c>
       <c r="K2">
-        <v>1.027877172038983</v>
+        <v>1.027877172038982</v>
       </c>
       <c r="L2">
-        <v>0.8789916711647372</v>
+        <v>0.8789916711647384</v>
       </c>
       <c r="M2">
-        <v>0.8198168368008757</v>
+        <v>0.8198168368008772</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8719534146162302</v>
+        <v>0.8719534146162307</v>
       </c>
       <c r="D3">
         <v>1.02367555996996</v>
       </c>
       <c r="E3">
-        <v>0.8934564208927666</v>
+        <v>0.893456420892767</v>
       </c>
       <c r="F3">
-        <v>0.8437074840258163</v>
+        <v>0.843707484025817</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.035332419853897</v>
       </c>
       <c r="J3">
-        <v>0.896668565635459</v>
+        <v>0.8966685656354594</v>
       </c>
       <c r="K3">
         <v>1.034014211020879</v>
       </c>
       <c r="L3">
-        <v>0.9056622059024665</v>
+        <v>0.9056622059024667</v>
       </c>
       <c r="M3">
-        <v>0.8568264266058488</v>
+        <v>0.8568264266058496</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8899899107296065</v>
+        <v>0.8899899107296053</v>
       </c>
       <c r="D4">
-        <v>1.027689182534645</v>
+        <v>1.027689182534644</v>
       </c>
       <c r="E4">
-        <v>0.908973918318956</v>
+        <v>0.9089739183189547</v>
       </c>
       <c r="F4">
-        <v>0.8649887148034396</v>
+        <v>0.8649887148034381</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038364039466635</v>
+        <v>1.038364039466634</v>
       </c>
       <c r="J4">
-        <v>0.912697935781805</v>
+        <v>0.9126979357818038</v>
       </c>
       <c r="K4">
         <v>1.037464525753144</v>
       </c>
       <c r="L4">
-        <v>0.9203110911666559</v>
+        <v>0.9203110911666544</v>
       </c>
       <c r="M4">
-        <v>0.8770453358383559</v>
+        <v>0.8770453358383541</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8970173688284981</v>
+        <v>0.8970173688284994</v>
       </c>
       <c r="D5">
-        <v>1.029280625270802</v>
+        <v>1.029280625270803</v>
       </c>
       <c r="E5">
-        <v>0.9150257264974218</v>
+        <v>0.9150257264974224</v>
       </c>
       <c r="F5">
-        <v>0.8732624629246051</v>
+        <v>0.8732624629246067</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039548206001695</v>
+        <v>1.039548206001696</v>
       </c>
       <c r="J5">
-        <v>0.9189400995195228</v>
+        <v>0.9189400995195238</v>
       </c>
       <c r="K5">
-        <v>1.038821977108036</v>
+        <v>1.038821977108038</v>
       </c>
       <c r="L5">
-        <v>0.9260170513347961</v>
+        <v>0.9260170513347967</v>
       </c>
       <c r="M5">
-        <v>0.8849055093600031</v>
+        <v>0.8849055093600048</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8981689906424426</v>
+        <v>0.8981689906424435</v>
       </c>
       <c r="D6">
         <v>1.029542860587491</v>
       </c>
       <c r="E6">
-        <v>0.9160177544426082</v>
+        <v>0.9160177544426094</v>
       </c>
       <c r="F6">
-        <v>0.8746174766828466</v>
+        <v>0.8746174766828474</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.039742353063946</v>
       </c>
       <c r="J6">
-        <v>0.9199628251628192</v>
+        <v>0.9199628251628202</v>
       </c>
       <c r="K6">
-        <v>1.039045074109817</v>
+        <v>1.039045074109818</v>
       </c>
       <c r="L6">
-        <v>0.926951992668313</v>
+        <v>0.9269519926683139</v>
       </c>
       <c r="M6">
-        <v>0.8861927312673592</v>
+        <v>0.8861927312673599</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8900857918650581</v>
+        <v>0.8900857918650592</v>
       </c>
       <c r="D7">
         <v>1.027710793461557</v>
       </c>
       <c r="E7">
-        <v>0.9090564669611865</v>
+        <v>0.9090564669611876</v>
       </c>
       <c r="F7">
-        <v>0.8651016620388368</v>
+        <v>0.8651016620388378</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.038380187960035</v>
       </c>
       <c r="J7">
-        <v>0.9127831163777254</v>
+        <v>0.9127831163777262</v>
       </c>
       <c r="K7">
         <v>1.037482999722434</v>
       </c>
       <c r="L7">
-        <v>0.9203889497922899</v>
+        <v>0.920388949792291</v>
       </c>
       <c r="M7">
-        <v>0.877152640815361</v>
+        <v>0.8771526408153619</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8510551083023853</v>
+        <v>0.8510551083023814</v>
       </c>
       <c r="D8">
-        <v>1.019158296099659</v>
+        <v>1.019158296099658</v>
       </c>
       <c r="E8">
-        <v>0.8755067648260668</v>
+        <v>0.875506764826063</v>
       </c>
       <c r="F8">
-        <v>0.8189482668560663</v>
+        <v>0.8189482668560618</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.031842660119898</v>
       </c>
       <c r="J8">
-        <v>0.8780850879816497</v>
+        <v>0.8780850879816461</v>
       </c>
       <c r="K8">
-        <v>1.030084861794354</v>
+        <v>1.030084861794353</v>
       </c>
       <c r="L8">
-        <v>0.8886865401637661</v>
+        <v>0.8886865401637624</v>
       </c>
       <c r="M8">
-        <v>0.8333049726213571</v>
+        <v>0.8333049726213527</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D9">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E9">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F9">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J9">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K9">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L9">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M9">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D10">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E10">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F10">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J10">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K10">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L10">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M10">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D11">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E11">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F11">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J11">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K11">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L11">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M11">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D12">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E12">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F12">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J12">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K12">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L12">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M12">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D13">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E13">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F13">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J13">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K13">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L13">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M13">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D14">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E14">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F14">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J14">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K14">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L14">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M14">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D15">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E15">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F15">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J15">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K15">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L15">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M15">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D16">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E16">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F16">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J16">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K16">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L16">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M16">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D17">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E17">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F17">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J17">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K17">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L17">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M17">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D18">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E18">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F18">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J18">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K18">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L18">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M18">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D19">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E19">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F19">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J19">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K19">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L19">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M19">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D20">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E20">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F20">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J20">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K20">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L20">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M20">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D21">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E21">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F21">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J21">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K21">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L21">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M21">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D22">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E22">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F22">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J22">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K22">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L22">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M22">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D23">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E23">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F23">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J23">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K23">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L23">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M23">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D24">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E24">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F24">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J24">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K24">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L24">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M24">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7166802775152864</v>
+        <v>0.7166802775152793</v>
       </c>
       <c r="D25">
-        <v>0.9939393805863698</v>
+        <v>0.9939393805863683</v>
       </c>
       <c r="E25">
-        <v>0.7611783528527223</v>
+        <v>0.7611783528527165</v>
       </c>
       <c r="F25">
-        <v>0.6545760578146804</v>
+        <v>0.6545760578146721</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010635411432336</v>
+        <v>1.010635411432335</v>
       </c>
       <c r="J25">
-        <v>0.7586074962270536</v>
+        <v>0.7586074962270474</v>
       </c>
       <c r="K25">
-        <v>1.007131558438252</v>
+        <v>1.007131558438251</v>
       </c>
       <c r="L25">
-        <v>0.7798572801018475</v>
+        <v>0.7798572801018417</v>
       </c>
       <c r="M25">
-        <v>0.6777074961818915</v>
+        <v>0.6777074961818834</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8391184789979534</v>
+        <v>0.8391184789979521</v>
       </c>
       <c r="D2">
         <v>1.016644957960377</v>
       </c>
       <c r="E2">
-        <v>0.8652704465605052</v>
+        <v>0.8652704465605039</v>
       </c>
       <c r="F2">
-        <v>0.8047469089851832</v>
+        <v>0.8047469089851816</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.029864741242099</v>
       </c>
       <c r="J2">
-        <v>0.8674675094974889</v>
+        <v>0.8674675094974875</v>
       </c>
       <c r="K2">
-        <v>1.027877172038982</v>
+        <v>1.027877172038983</v>
       </c>
       <c r="L2">
-        <v>0.8789916711647384</v>
+        <v>0.8789916711647372</v>
       </c>
       <c r="M2">
-        <v>0.8198168368008772</v>
+        <v>0.8198168368008757</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8719534146162307</v>
+        <v>0.8719534146162302</v>
       </c>
       <c r="D3">
         <v>1.02367555996996</v>
       </c>
       <c r="E3">
-        <v>0.893456420892767</v>
+        <v>0.8934564208927666</v>
       </c>
       <c r="F3">
-        <v>0.843707484025817</v>
+        <v>0.8437074840258163</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.035332419853897</v>
       </c>
       <c r="J3">
-        <v>0.8966685656354594</v>
+        <v>0.896668565635459</v>
       </c>
       <c r="K3">
         <v>1.034014211020879</v>
       </c>
       <c r="L3">
-        <v>0.9056622059024667</v>
+        <v>0.9056622059024665</v>
       </c>
       <c r="M3">
-        <v>0.8568264266058496</v>
+        <v>0.8568264266058488</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8899899107296053</v>
+        <v>0.8899899107296065</v>
       </c>
       <c r="D4">
-        <v>1.027689182534644</v>
+        <v>1.027689182534645</v>
       </c>
       <c r="E4">
-        <v>0.9089739183189547</v>
+        <v>0.908973918318956</v>
       </c>
       <c r="F4">
-        <v>0.8649887148034381</v>
+        <v>0.8649887148034396</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038364039466634</v>
+        <v>1.038364039466635</v>
       </c>
       <c r="J4">
-        <v>0.9126979357818038</v>
+        <v>0.912697935781805</v>
       </c>
       <c r="K4">
         <v>1.037464525753144</v>
       </c>
       <c r="L4">
-        <v>0.9203110911666544</v>
+        <v>0.9203110911666559</v>
       </c>
       <c r="M4">
-        <v>0.8770453358383541</v>
+        <v>0.8770453358383559</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8970173688284994</v>
+        <v>0.8970173688284981</v>
       </c>
       <c r="D5">
-        <v>1.029280625270803</v>
+        <v>1.029280625270802</v>
       </c>
       <c r="E5">
-        <v>0.9150257264974224</v>
+        <v>0.9150257264974218</v>
       </c>
       <c r="F5">
-        <v>0.8732624629246067</v>
+        <v>0.8732624629246051</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039548206001696</v>
+        <v>1.039548206001695</v>
       </c>
       <c r="J5">
-        <v>0.9189400995195238</v>
+        <v>0.9189400995195228</v>
       </c>
       <c r="K5">
-        <v>1.038821977108038</v>
+        <v>1.038821977108036</v>
       </c>
       <c r="L5">
-        <v>0.9260170513347967</v>
+        <v>0.9260170513347961</v>
       </c>
       <c r="M5">
-        <v>0.8849055093600048</v>
+        <v>0.8849055093600031</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8981689906424435</v>
+        <v>0.8981689906424426</v>
       </c>
       <c r="D6">
         <v>1.029542860587491</v>
       </c>
       <c r="E6">
-        <v>0.9160177544426094</v>
+        <v>0.9160177544426082</v>
       </c>
       <c r="F6">
-        <v>0.8746174766828474</v>
+        <v>0.8746174766828466</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.039742353063946</v>
       </c>
       <c r="J6">
-        <v>0.9199628251628202</v>
+        <v>0.9199628251628192</v>
       </c>
       <c r="K6">
-        <v>1.039045074109818</v>
+        <v>1.039045074109817</v>
       </c>
       <c r="L6">
-        <v>0.9269519926683139</v>
+        <v>0.926951992668313</v>
       </c>
       <c r="M6">
-        <v>0.8861927312673599</v>
+        <v>0.8861927312673592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8900857918650592</v>
+        <v>0.8900857918650581</v>
       </c>
       <c r="D7">
         <v>1.027710793461557</v>
       </c>
       <c r="E7">
-        <v>0.9090564669611876</v>
+        <v>0.9090564669611865</v>
       </c>
       <c r="F7">
-        <v>0.8651016620388378</v>
+        <v>0.8651016620388368</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.038380187960035</v>
       </c>
       <c r="J7">
-        <v>0.9127831163777262</v>
+        <v>0.9127831163777254</v>
       </c>
       <c r="K7">
         <v>1.037482999722434</v>
       </c>
       <c r="L7">
-        <v>0.920388949792291</v>
+        <v>0.9203889497922899</v>
       </c>
       <c r="M7">
-        <v>0.8771526408153619</v>
+        <v>0.877152640815361</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8510551083023814</v>
+        <v>0.8510551083023853</v>
       </c>
       <c r="D8">
-        <v>1.019158296099658</v>
+        <v>1.019158296099659</v>
       </c>
       <c r="E8">
-        <v>0.875506764826063</v>
+        <v>0.8755067648260668</v>
       </c>
       <c r="F8">
-        <v>0.8189482668560618</v>
+        <v>0.8189482668560663</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.031842660119898</v>
       </c>
       <c r="J8">
-        <v>0.8780850879816461</v>
+        <v>0.8780850879816497</v>
       </c>
       <c r="K8">
-        <v>1.030084861794353</v>
+        <v>1.030084861794354</v>
       </c>
       <c r="L8">
-        <v>0.8886865401637624</v>
+        <v>0.8886865401637661</v>
       </c>
       <c r="M8">
-        <v>0.8333049726213527</v>
+        <v>0.8333049726213571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D9">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E9">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F9">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J9">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K9">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L9">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M9">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D10">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E10">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F10">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J10">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K10">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L10">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M10">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D11">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E11">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F11">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J11">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K11">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L11">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M11">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D12">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E12">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F12">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J12">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K12">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L12">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M12">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D13">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E13">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F13">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J13">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K13">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L13">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M13">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D14">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E14">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F14">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J14">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K14">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L14">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M14">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D15">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E15">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F15">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J15">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K15">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L15">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M15">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D16">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E16">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F16">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J16">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K16">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L16">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M16">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D17">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E17">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F17">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J17">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K17">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L17">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M17">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D18">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E18">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F18">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J18">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K18">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L18">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M18">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D19">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E19">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F19">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J19">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K19">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L19">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M19">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D20">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E20">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F20">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J20">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K20">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L20">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M20">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D21">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E21">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F21">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J21">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K21">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L21">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M21">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D22">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E22">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F22">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J22">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K22">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L22">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M22">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D23">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E23">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F23">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J23">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K23">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L23">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M23">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D24">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E24">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F24">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J24">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K24">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L24">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M24">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7166802775152793</v>
+        <v>0.7166802775152864</v>
       </c>
       <c r="D25">
-        <v>0.9939393805863683</v>
+        <v>0.9939393805863698</v>
       </c>
       <c r="E25">
-        <v>0.7611783528527165</v>
+        <v>0.7611783528527223</v>
       </c>
       <c r="F25">
-        <v>0.6545760578146721</v>
+        <v>0.6545760578146804</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010635411432335</v>
+        <v>1.010635411432336</v>
       </c>
       <c r="J25">
-        <v>0.7586074962270474</v>
+        <v>0.7586074962270536</v>
       </c>
       <c r="K25">
-        <v>1.007131558438251</v>
+        <v>1.007131558438252</v>
       </c>
       <c r="L25">
-        <v>0.7798572801018417</v>
+        <v>0.7798572801018475</v>
       </c>
       <c r="M25">
-        <v>0.6777074961818834</v>
+        <v>0.6777074961818915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8391184789979521</v>
+        <v>0.8454335290781855</v>
       </c>
       <c r="D2">
-        <v>1.016644957960377</v>
+        <v>1.017579276351737</v>
       </c>
       <c r="E2">
-        <v>0.8652704465605039</v>
+        <v>0.8706868611864711</v>
       </c>
       <c r="F2">
-        <v>0.8047469089851816</v>
+        <v>0.8116396685996093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029864741242099</v>
+        <v>1.030772363347607</v>
       </c>
       <c r="J2">
-        <v>0.8674675094974875</v>
+        <v>0.8734761085430659</v>
       </c>
       <c r="K2">
-        <v>1.027877172038983</v>
+        <v>1.028799018234881</v>
       </c>
       <c r="L2">
-        <v>0.8789916711647372</v>
+        <v>0.8842993960844757</v>
       </c>
       <c r="M2">
-        <v>0.8198168368008757</v>
+        <v>0.8265423627712466</v>
+      </c>
+      <c r="N2">
+        <v>0.8747165448063071</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8719534146162302</v>
+        <v>0.8777090764976385</v>
       </c>
       <c r="D3">
-        <v>1.02367555996996</v>
+        <v>1.024526212191084</v>
       </c>
       <c r="E3">
-        <v>0.8934564208927666</v>
+        <v>0.8984072649256215</v>
       </c>
       <c r="F3">
-        <v>0.8437074840258163</v>
+        <v>0.8498764483871786</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035332419853897</v>
+        <v>1.036160669603421</v>
       </c>
       <c r="J3">
-        <v>0.896668565635459</v>
+        <v>0.9021967484427924</v>
       </c>
       <c r="K3">
-        <v>1.034014211020879</v>
+        <v>1.034854605920593</v>
       </c>
       <c r="L3">
-        <v>0.9056622059024665</v>
+        <v>0.9105293095855135</v>
       </c>
       <c r="M3">
-        <v>0.8568264266058488</v>
+        <v>0.8628745457369409</v>
+      </c>
+      <c r="N3">
+        <v>0.9034779713089947</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8899899107296065</v>
+        <v>0.8955196093597226</v>
       </c>
       <c r="D4">
-        <v>1.027689182534645</v>
+        <v>1.028505631259723</v>
       </c>
       <c r="E4">
-        <v>0.908973918318956</v>
+        <v>0.913737044230805</v>
       </c>
       <c r="F4">
-        <v>0.8649887148034396</v>
+        <v>0.8708648619239486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038364039466635</v>
+        <v>1.039160101481019</v>
       </c>
       <c r="J4">
-        <v>0.912697935781805</v>
+        <v>0.9180343866335627</v>
       </c>
       <c r="K4">
-        <v>1.037464525753144</v>
+        <v>1.038271773399096</v>
       </c>
       <c r="L4">
-        <v>0.9203110911666559</v>
+        <v>0.9250016057408795</v>
       </c>
       <c r="M4">
-        <v>0.8770453358383559</v>
+        <v>0.8828199345652296</v>
+      </c>
+      <c r="N4">
+        <v>0.9193381007625984</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8970173688284981</v>
+        <v>0.9024708086408514</v>
       </c>
       <c r="D5">
-        <v>1.029280625270802</v>
+        <v>1.030085460367992</v>
       </c>
       <c r="E5">
-        <v>0.9150257264974218</v>
+        <v>0.9197255828216921</v>
       </c>
       <c r="F5">
-        <v>0.8732624629246051</v>
+        <v>0.8790395751188921</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039548206001695</v>
+        <v>1.040333393396014</v>
       </c>
       <c r="J5">
-        <v>0.9189400995195228</v>
+        <v>0.9242123142346593</v>
       </c>
       <c r="K5">
-        <v>1.038821977108036</v>
+        <v>1.039618001409123</v>
       </c>
       <c r="L5">
-        <v>0.9260170513347961</v>
+        <v>0.9306482650097213</v>
       </c>
       <c r="M5">
-        <v>0.8849055093600031</v>
+        <v>0.8905877279240111</v>
+      </c>
+      <c r="N5">
+        <v>0.9255248017295065</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8981689906424426</v>
+        <v>0.903610495202115</v>
       </c>
       <c r="D6">
-        <v>1.029542860587491</v>
+        <v>1.030345874460767</v>
       </c>
       <c r="E6">
-        <v>0.9160177544426082</v>
+        <v>0.9207077133481331</v>
       </c>
       <c r="F6">
-        <v>0.8746174766828466</v>
+        <v>0.8803790743265361</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039742353063946</v>
+        <v>1.040525838210121</v>
       </c>
       <c r="J6">
-        <v>0.9199628251628192</v>
+        <v>0.9252250125115206</v>
       </c>
       <c r="K6">
-        <v>1.039045074109817</v>
+        <v>1.039839340181265</v>
       </c>
       <c r="L6">
-        <v>0.926951992668313</v>
+        <v>0.9315739419489188</v>
       </c>
       <c r="M6">
-        <v>0.8861927312673592</v>
+        <v>0.8918604854071066</v>
+      </c>
+      <c r="N6">
+        <v>0.9265389381540792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8900857918650581</v>
+        <v>0.8956144090447358</v>
       </c>
       <c r="D7">
-        <v>1.027710793461557</v>
+        <v>1.028527077758577</v>
       </c>
       <c r="E7">
-        <v>0.9090564669611865</v>
+        <v>0.9138186952786027</v>
       </c>
       <c r="F7">
-        <v>0.8651016620388368</v>
+        <v>0.8709764057176581</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038380187960035</v>
+        <v>1.03917609578647</v>
       </c>
       <c r="J7">
-        <v>0.9127831163777254</v>
+        <v>0.9181186543711457</v>
       </c>
       <c r="K7">
-        <v>1.037482999722434</v>
+        <v>1.038290088336707</v>
       </c>
       <c r="L7">
-        <v>0.9203889497922899</v>
+        <v>0.925078622189941</v>
       </c>
       <c r="M7">
-        <v>0.877152640815361</v>
+        <v>0.8829259298637164</v>
+      </c>
+      <c r="N7">
+        <v>0.9194224881700344</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8510551083023853</v>
+        <v>0.8571401192476532</v>
       </c>
       <c r="D8">
-        <v>1.019158296099659</v>
+        <v>1.020058350557282</v>
       </c>
       <c r="E8">
-        <v>0.8755067648260668</v>
+        <v>0.8807316215957265</v>
       </c>
       <c r="F8">
-        <v>0.8189482668560663</v>
+        <v>0.8255433623510721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031842660119898</v>
+        <v>1.032717695566356</v>
       </c>
       <c r="J8">
-        <v>0.8780850879816497</v>
+        <v>0.8838953689511306</v>
       </c>
       <c r="K8">
-        <v>1.030084861794354</v>
+        <v>1.030973304158261</v>
       </c>
       <c r="L8">
-        <v>0.8886865401637661</v>
+        <v>0.893812628079106</v>
       </c>
       <c r="M8">
-        <v>0.8333049726213571</v>
+        <v>0.8397517675163402</v>
+      </c>
+      <c r="N8">
+        <v>0.8851506017592571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D9">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E9">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F9">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J9">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K9">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L9">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M9">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N9">
+        <v>0.7739015699963273</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D10">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E10">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F10">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J10">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K10">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L10">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M10">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N10">
+        <v>0.7739015699963273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D11">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E11">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F11">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J11">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K11">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L11">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M11">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N11">
+        <v>0.7739015699963273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D12">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E12">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F12">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J12">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K12">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L12">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M12">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N12">
+        <v>0.7739015699963273</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D13">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E13">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F13">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J13">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K13">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L13">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M13">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N13">
+        <v>0.7739015699963273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D14">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E14">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F14">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J14">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K14">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L14">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M14">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N14">
+        <v>0.7739015699963273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D15">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E15">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F15">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J15">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K15">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L15">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M15">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N15">
+        <v>0.7739015699963273</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D16">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E16">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F16">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J16">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K16">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L16">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M16">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N16">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D17">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E17">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F17">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J17">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K17">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L17">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M17">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N17">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D18">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E18">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F18">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J18">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K18">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L18">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M18">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N18">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D19">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E19">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F19">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J19">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K19">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L19">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M19">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N19">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D20">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E20">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F20">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J20">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K20">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L20">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M20">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N20">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D21">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E21">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F21">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J21">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K21">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L21">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M21">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N21">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D22">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E22">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F22">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J22">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K22">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L22">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M22">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N22">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D23">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E23">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F23">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J23">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K23">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L23">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M23">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N23">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D24">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E24">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F24">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J24">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K24">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L24">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M24">
-        <v>0.6777074961818915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N24">
+        <v>0.7739015699963273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7166802775152864</v>
+        <v>0.732288845643347</v>
       </c>
       <c r="D25">
-        <v>0.9939393805863698</v>
+        <v>0.9962237066722618</v>
       </c>
       <c r="E25">
-        <v>0.7611783528527223</v>
+        <v>0.7743498886192276</v>
       </c>
       <c r="F25">
-        <v>0.6545760578146804</v>
+        <v>0.6737199146572989</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010635411432336</v>
+        <v>1.012842247071245</v>
       </c>
       <c r="J25">
-        <v>0.7586074962270536</v>
+        <v>0.772804099533121</v>
       </c>
       <c r="K25">
-        <v>1.007131558438252</v>
+        <v>1.009378350173612</v>
       </c>
       <c r="L25">
-        <v>0.7798572801018475</v>
+        <v>0.7925957269976645</v>
       </c>
       <c r="M25">
-        <v>0.6777074961818915</v>
+        <v>0.695901553605438</v>
+      </c>
+      <c r="N25">
+        <v>0.7739015699963273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8454335290781855</v>
+        <v>0.7170509950374112</v>
       </c>
       <c r="D2">
-        <v>1.017579276351737</v>
+        <v>1.009483238344942</v>
       </c>
       <c r="E2">
-        <v>0.8706868611864711</v>
+        <v>0.7608793889206065</v>
       </c>
       <c r="F2">
-        <v>0.8116396685996093</v>
+        <v>0.7413425397770582</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030772363347607</v>
+        <v>1.022909326660383</v>
       </c>
       <c r="J2">
-        <v>0.8734761085430659</v>
+        <v>0.7529579961924008</v>
       </c>
       <c r="K2">
-        <v>1.028799018234881</v>
+        <v>1.0208120188511</v>
       </c>
       <c r="L2">
-        <v>0.8842993960844757</v>
+        <v>0.777111071519863</v>
       </c>
       <c r="M2">
-        <v>0.8265423627712466</v>
+        <v>0.7581528214306116</v>
       </c>
       <c r="N2">
-        <v>0.8747165448063071</v>
+        <v>0.7540272829124834</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8777090764976385</v>
+        <v>0.8014985864608011</v>
       </c>
       <c r="D3">
-        <v>1.024526212191084</v>
+        <v>1.021996373483075</v>
       </c>
       <c r="E3">
-        <v>0.8984072649256215</v>
+        <v>0.8327911565243877</v>
       </c>
       <c r="F3">
-        <v>0.8498764483871786</v>
+        <v>0.8238163847379735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036160669603421</v>
+        <v>1.033697563670847</v>
       </c>
       <c r="J3">
-        <v>0.9021967484427924</v>
+        <v>0.8293858738496594</v>
       </c>
       <c r="K3">
-        <v>1.034854605920593</v>
+        <v>1.032355334726642</v>
       </c>
       <c r="L3">
-        <v>0.9105293095855135</v>
+        <v>0.8461297284575205</v>
       </c>
       <c r="M3">
-        <v>0.8628745457369409</v>
+        <v>0.8373412931296575</v>
       </c>
       <c r="N3">
-        <v>0.9034779713089947</v>
+        <v>0.8305636969224154</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8955196093597226</v>
+        <v>0.8341793800210086</v>
       </c>
       <c r="D4">
-        <v>1.028505631259723</v>
+        <v>1.0274615395267</v>
       </c>
       <c r="E4">
-        <v>0.913737044230805</v>
+        <v>0.8608132570312467</v>
       </c>
       <c r="F4">
-        <v>0.8708648619239486</v>
+        <v>0.8561264029516155</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039160101481019</v>
+        <v>1.038142086261778</v>
       </c>
       <c r="J4">
-        <v>0.9180343866335627</v>
+        <v>0.8590434681588065</v>
       </c>
       <c r="K4">
-        <v>1.038271773399096</v>
+        <v>1.037239451410988</v>
       </c>
       <c r="L4">
-        <v>0.9250016057408795</v>
+        <v>0.8729431286473093</v>
       </c>
       <c r="M4">
-        <v>0.8828199345652296</v>
+        <v>0.8683396021174985</v>
       </c>
       <c r="N4">
-        <v>0.9193381007625984</v>
+        <v>0.860263408417255</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9024708086408514</v>
+        <v>0.8459053874201294</v>
       </c>
       <c r="D5">
-        <v>1.030085460367992</v>
+        <v>1.029499994215641</v>
       </c>
       <c r="E5">
-        <v>0.9197255828216921</v>
+        <v>0.8708880284117468</v>
       </c>
       <c r="F5">
-        <v>0.8790395751188921</v>
+        <v>0.8677407891937542</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040333393396014</v>
+        <v>1.039762216790606</v>
       </c>
       <c r="J5">
-        <v>0.9242123142346593</v>
+        <v>0.8696882247857616</v>
       </c>
       <c r="K5">
-        <v>1.039618001409123</v>
+        <v>1.039038942871334</v>
       </c>
       <c r="L5">
-        <v>0.9306482650097213</v>
+        <v>0.8825705471078408</v>
       </c>
       <c r="M5">
-        <v>0.8905877279240111</v>
+        <v>0.8794760565062034</v>
       </c>
       <c r="N5">
-        <v>0.9255248017295065</v>
+        <v>0.870923281819591</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.903610495202115</v>
+        <v>0.8477859291413523</v>
       </c>
       <c r="D6">
-        <v>1.030345874460767</v>
+        <v>1.029830569780036</v>
       </c>
       <c r="E6">
-        <v>0.9207077133481331</v>
+        <v>0.8725046641009201</v>
       </c>
       <c r="F6">
-        <v>0.8803790743265361</v>
+        <v>0.8696039507416893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040525838210121</v>
+        <v>1.040023062042181</v>
       </c>
       <c r="J6">
-        <v>0.9252250125115206</v>
+        <v>0.8713954068295655</v>
       </c>
       <c r="K6">
-        <v>1.039839340181265</v>
+        <v>1.039329647156481</v>
       </c>
       <c r="L6">
-        <v>0.9315739419489188</v>
+        <v>0.8841147313494258</v>
       </c>
       <c r="M6">
-        <v>0.8918604854071066</v>
+        <v>0.8812621678014535</v>
       </c>
       <c r="N6">
-        <v>0.9265389381540792</v>
+        <v>0.8726328882577137</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8956144090447358</v>
+        <v>0.8343424858544681</v>
       </c>
       <c r="D7">
-        <v>1.028527077758577</v>
+        <v>1.02748962072885</v>
       </c>
       <c r="E7">
-        <v>0.9138186952786027</v>
+        <v>0.8609533257419532</v>
       </c>
       <c r="F7">
-        <v>0.8709764057176581</v>
+        <v>0.8562879064182447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03917609578647</v>
+        <v>1.038164541610776</v>
       </c>
       <c r="J7">
-        <v>0.9181186543711457</v>
+        <v>0.8591915280673581</v>
       </c>
       <c r="K7">
-        <v>1.038290088336707</v>
+        <v>1.037264321665256</v>
       </c>
       <c r="L7">
-        <v>0.925078622189941</v>
+        <v>0.8730770261272541</v>
       </c>
       <c r="M7">
-        <v>0.8829259298637164</v>
+        <v>0.8684944863184397</v>
       </c>
       <c r="N7">
-        <v>0.9194224881700344</v>
+        <v>0.8604116785878597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8571401192476532</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D8">
-        <v>1.020058350557282</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E8">
-        <v>0.8807316215957265</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F8">
-        <v>0.8255433623510721</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032717695566356</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J8">
-        <v>0.8838953689511306</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K8">
-        <v>1.030973304158261</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L8">
-        <v>0.893812628079106</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M8">
-        <v>0.8397517675163402</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N8">
-        <v>0.8851506017592571</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D9">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E9">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F9">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J9">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K9">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L9">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M9">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N9">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D10">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E10">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F10">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J10">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K10">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L10">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M10">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N10">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D11">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E11">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F11">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J11">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K11">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L11">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M11">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N11">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D12">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E12">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F12">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J12">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K12">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L12">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M12">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N12">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D13">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E13">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F13">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J13">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K13">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L13">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M13">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N13">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D14">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E14">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F14">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J14">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K14">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L14">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M14">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N14">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D15">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E15">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F15">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J15">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K15">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L15">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M15">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N15">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D16">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E16">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F16">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J16">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K16">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L16">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M16">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N16">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D17">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E17">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F17">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J17">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K17">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L17">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M17">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N17">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D18">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E18">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F18">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J18">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K18">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L18">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M18">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N18">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D19">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E19">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F19">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J19">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K19">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L19">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M19">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N19">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D20">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E20">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F20">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J20">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K20">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L20">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M20">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N20">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D21">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E21">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F21">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J21">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K21">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L21">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M21">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N21">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D22">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E22">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F22">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J22">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K22">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L22">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M22">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N22">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D23">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E23">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F23">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J23">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K23">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L23">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M23">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N23">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D24">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E24">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F24">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J24">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K24">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L24">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M24">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N24">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.732288845643347</v>
+        <v>0.754987989378873</v>
       </c>
       <c r="D25">
-        <v>0.9962237066722618</v>
+        <v>1.014804078894259</v>
       </c>
       <c r="E25">
-        <v>0.7743498886192276</v>
+        <v>0.7930824309427982</v>
       </c>
       <c r="F25">
-        <v>0.6737199146572989</v>
+        <v>0.7781401897217155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.012842247071245</v>
+        <v>1.027610109610292</v>
       </c>
       <c r="J25">
-        <v>0.772804099533121</v>
+        <v>0.7872388939015295</v>
       </c>
       <c r="K25">
-        <v>1.009378350173612</v>
+        <v>1.025787185017623</v>
       </c>
       <c r="L25">
-        <v>0.7925957269976645</v>
+        <v>0.8080528797190744</v>
       </c>
       <c r="M25">
-        <v>0.695901553605438</v>
+        <v>0.7934904139486891</v>
       </c>
       <c r="N25">
-        <v>0.7739015699963273</v>
+        <v>0.7883568634284327</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7170509950374112</v>
+        <v>0.9728598880125688</v>
       </c>
       <c r="D2">
-        <v>1.009483238344942</v>
+        <v>1.037480445270876</v>
       </c>
       <c r="E2">
-        <v>0.7608793889206065</v>
+        <v>0.9829065794497395</v>
       </c>
       <c r="F2">
-        <v>0.7413425397770582</v>
+        <v>1.027018919958186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022909326660383</v>
+        <v>1.050231569409074</v>
       </c>
       <c r="J2">
-        <v>0.7529579961924008</v>
+        <v>0.9958838068468079</v>
       </c>
       <c r="K2">
-        <v>1.0208120188511</v>
+        <v>1.048441191987572</v>
       </c>
       <c r="L2">
-        <v>0.777111071519863</v>
+        <v>0.9946093036981342</v>
       </c>
       <c r="M2">
-        <v>0.7581528214306116</v>
+        <v>1.038114246573692</v>
       </c>
       <c r="N2">
-        <v>0.7540272829124834</v>
+        <v>0.9972980760819997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8014985864608011</v>
+        <v>0.9781163570436707</v>
       </c>
       <c r="D3">
-        <v>1.021996373483075</v>
+        <v>1.04062836380666</v>
       </c>
       <c r="E3">
-        <v>0.8327911565243877</v>
+        <v>0.9871378287263088</v>
       </c>
       <c r="F3">
-        <v>0.8238163847379735</v>
+        <v>1.031171082119953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033697563670847</v>
+        <v>1.051095155832593</v>
       </c>
       <c r="J3">
-        <v>0.8293858738496594</v>
+        <v>0.9992219064385597</v>
       </c>
       <c r="K3">
-        <v>1.032355334726642</v>
+        <v>1.050766505588809</v>
       </c>
       <c r="L3">
-        <v>0.8461297284575205</v>
+        <v>0.9979379725027834</v>
       </c>
       <c r="M3">
-        <v>0.8373412931296575</v>
+        <v>1.041420072529331</v>
       </c>
       <c r="N3">
-        <v>0.8305636969224154</v>
+        <v>1.000640916158057</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8341793800210086</v>
+        <v>0.9814424693641985</v>
       </c>
       <c r="D4">
-        <v>1.0274615395267</v>
+        <v>1.042621599478404</v>
       </c>
       <c r="E4">
-        <v>0.8608132570312467</v>
+        <v>0.9898221381524753</v>
       </c>
       <c r="F4">
-        <v>0.8561264029516155</v>
+        <v>1.033802960939702</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038142086261778</v>
+        <v>1.051629974416332</v>
       </c>
       <c r="J4">
-        <v>0.8590434681588065</v>
+        <v>1.00133309338524</v>
       </c>
       <c r="K4">
-        <v>1.037239451410988</v>
+        <v>1.05223145704742</v>
       </c>
       <c r="L4">
-        <v>0.8729431286473093</v>
+        <v>1.000044973230103</v>
       </c>
       <c r="M4">
-        <v>0.8683396021174985</v>
+        <v>1.043509838461192</v>
       </c>
       <c r="N4">
-        <v>0.860263408417255</v>
+        <v>1.002755101232359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8459053874201294</v>
+        <v>0.9828235302226046</v>
       </c>
       <c r="D5">
-        <v>1.029499994215641</v>
+        <v>1.043449375676996</v>
       </c>
       <c r="E5">
-        <v>0.8708880284117468</v>
+        <v>0.9909383060758538</v>
       </c>
       <c r="F5">
-        <v>0.8677407891937542</v>
+        <v>1.03489668720174</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039762216790606</v>
+        <v>1.05184916909438</v>
       </c>
       <c r="J5">
-        <v>0.8696882247857616</v>
+        <v>1.0022093981203</v>
       </c>
       <c r="K5">
-        <v>1.039038942871334</v>
+        <v>1.052838049138095</v>
       </c>
       <c r="L5">
-        <v>0.8825705471078408</v>
+        <v>1.000919961695255</v>
       </c>
       <c r="M5">
-        <v>0.8794760565062034</v>
+        <v>1.044376908703538</v>
       </c>
       <c r="N5">
-        <v>0.870923281819591</v>
+        <v>1.003632650420656</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8477859291413523</v>
+        <v>0.9830544269247182</v>
       </c>
       <c r="D6">
-        <v>1.029830569780036</v>
+        <v>1.043587773758527</v>
       </c>
       <c r="E6">
-        <v>0.8725046641009201</v>
+        <v>0.9911250077996228</v>
       </c>
       <c r="F6">
-        <v>0.8696039507416893</v>
+        <v>1.035079594673503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040023062042181</v>
+        <v>1.05188564467283</v>
       </c>
       <c r="J6">
-        <v>0.8713954068295655</v>
+        <v>1.002355886889944</v>
       </c>
       <c r="K6">
-        <v>1.039329647156481</v>
+        <v>1.052939361176656</v>
       </c>
       <c r="L6">
-        <v>0.8841147313494258</v>
+        <v>1.001066255052127</v>
       </c>
       <c r="M6">
-        <v>0.8812621678014535</v>
+        <v>1.044521830739864</v>
       </c>
       <c r="N6">
-        <v>0.8726328882577137</v>
+        <v>1.003779347221155</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8343424858544681</v>
+        <v>0.9814609899221216</v>
       </c>
       <c r="D7">
-        <v>1.02748962072885</v>
+        <v>1.042632699908274</v>
       </c>
       <c r="E7">
-        <v>0.8609533257419532</v>
+        <v>0.9898371001754505</v>
       </c>
       <c r="F7">
-        <v>0.8562879064182447</v>
+        <v>1.033817624792471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038164541610776</v>
+        <v>1.051632925353651</v>
       </c>
       <c r="J7">
-        <v>0.8591915280673581</v>
+        <v>1.00134484620464</v>
       </c>
       <c r="K7">
-        <v>1.037264321665256</v>
+        <v>1.052239598507186</v>
       </c>
       <c r="L7">
-        <v>0.8730770261272541</v>
+        <v>1.000056706737515</v>
       </c>
       <c r="M7">
-        <v>0.8684944863184397</v>
+        <v>1.04352146891594</v>
       </c>
       <c r="N7">
-        <v>0.8604116785878597</v>
+        <v>1.00276687074211</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.754987989378873</v>
+        <v>0.974652373860606</v>
       </c>
       <c r="D8">
-        <v>1.014804078894259</v>
+        <v>1.038553513985105</v>
       </c>
       <c r="E8">
-        <v>0.7930824309427982</v>
+        <v>0.9843479653884559</v>
       </c>
       <c r="F8">
-        <v>0.7781401897217155</v>
+        <v>1.028433776086721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027610109610292</v>
+        <v>1.050528448217642</v>
       </c>
       <c r="J8">
-        <v>0.7872388939015295</v>
+        <v>0.997022308770256</v>
       </c>
       <c r="K8">
-        <v>1.025787185017623</v>
+        <v>1.049235399247164</v>
       </c>
       <c r="L8">
-        <v>0.8080528797190744</v>
+        <v>0.9957442122468336</v>
       </c>
       <c r="M8">
-        <v>0.7934904139486891</v>
+        <v>1.039241890122473</v>
       </c>
       <c r="N8">
-        <v>0.7883568634284327</v>
+        <v>0.9984381948087668</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.754987989378873</v>
+        <v>0.9620423673997625</v>
       </c>
       <c r="D9">
-        <v>1.014804078894259</v>
+        <v>1.031017765856664</v>
       </c>
       <c r="E9">
-        <v>0.7930824309427982</v>
+        <v>0.9742402871337191</v>
       </c>
       <c r="F9">
-        <v>0.7781401897217155</v>
+        <v>1.018506866368047</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027610109610292</v>
+        <v>1.048393876814762</v>
       </c>
       <c r="J9">
-        <v>0.7872388939015295</v>
+        <v>0.9890105816847401</v>
       </c>
       <c r="K9">
-        <v>1.025787185017623</v>
+        <v>1.043626876810063</v>
       </c>
       <c r="L9">
-        <v>0.8080528797190744</v>
+        <v>0.9877655974578552</v>
       </c>
       <c r="M9">
-        <v>0.7934904139486891</v>
+        <v>1.031306652596538</v>
       </c>
       <c r="N9">
-        <v>0.7883568634284327</v>
+        <v>0.9904150901518315</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.754987989378873</v>
+        <v>0.9531686556326581</v>
       </c>
       <c r="D10">
-        <v>1.014804078894259</v>
+        <v>1.025740495754779</v>
       </c>
       <c r="E10">
-        <v>0.7930824309427982</v>
+        <v>0.967172153284257</v>
       </c>
       <c r="F10">
-        <v>0.7781401897217155</v>
+        <v>1.011563551459636</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027610109610292</v>
+        <v>1.046837159940624</v>
       </c>
       <c r="J10">
-        <v>0.7872388939015295</v>
+        <v>0.9833719524995604</v>
       </c>
       <c r="K10">
-        <v>1.025787185017623</v>
+        <v>1.039660046720217</v>
       </c>
       <c r="L10">
-        <v>0.8080528797190744</v>
+        <v>0.9821605473061501</v>
       </c>
       <c r="M10">
-        <v>0.7934904139486891</v>
+        <v>1.025727114681907</v>
       </c>
       <c r="N10">
-        <v>0.7883568634284327</v>
+        <v>0.9847684534664495</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.754987989378873</v>
+        <v>0.9492017656514283</v>
       </c>
       <c r="D11">
-        <v>1.014804078894259</v>
+        <v>1.023390488853999</v>
       </c>
       <c r="E11">
-        <v>0.7930824309427982</v>
+        <v>0.9640242374307413</v>
       </c>
       <c r="F11">
-        <v>0.7781401897217155</v>
+        <v>1.008472620848676</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027610109610292</v>
+        <v>1.046129655896322</v>
       </c>
       <c r="J11">
-        <v>0.7872388939015295</v>
+        <v>0.9808519101769488</v>
       </c>
       <c r="K11">
-        <v>1.025787185017623</v>
+        <v>1.037884376538976</v>
       </c>
       <c r="L11">
-        <v>0.8080528797190744</v>
+        <v>0.9796580627842897</v>
       </c>
       <c r="M11">
-        <v>0.7934904139486891</v>
+        <v>1.023236505414135</v>
       </c>
       <c r="N11">
-        <v>0.7883568634284327</v>
+        <v>0.9822448323946866</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.754987989378873</v>
+        <v>0.9477082935625856</v>
       </c>
       <c r="D12">
-        <v>1.014804078894259</v>
+        <v>1.022507397603377</v>
       </c>
       <c r="E12">
-        <v>0.7930824309427982</v>
+        <v>0.9628409817399277</v>
       </c>
       <c r="F12">
-        <v>0.7781401897217155</v>
+        <v>1.00731115772003</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027610109610292</v>
+        <v>1.045861673880923</v>
       </c>
       <c r="J12">
-        <v>0.7872388939015295</v>
+        <v>0.9799033247033998</v>
       </c>
       <c r="K12">
-        <v>1.025787185017623</v>
+        <v>1.037215732176243</v>
       </c>
       <c r="L12">
-        <v>0.8080528797190744</v>
+        <v>0.9787164801090089</v>
       </c>
       <c r="M12">
-        <v>0.7934904139486891</v>
+        <v>1.02229961525847</v>
       </c>
       <c r="N12">
-        <v>0.7883568634284327</v>
+        <v>0.9812948998209607</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.754987989378873</v>
+        <v>0.9480295749800882</v>
       </c>
       <c r="D13">
-        <v>1.014804078894259</v>
+        <v>1.022697292419191</v>
       </c>
       <c r="E13">
-        <v>0.7930824309427982</v>
+        <v>0.9630954411970971</v>
       </c>
       <c r="F13">
-        <v>0.7781401897217155</v>
+        <v>1.007560911101293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027610109610292</v>
+        <v>1.045919394204982</v>
       </c>
       <c r="J13">
-        <v>0.7872388939015295</v>
+        <v>0.9801073790529747</v>
       </c>
       <c r="K13">
-        <v>1.025787185017623</v>
+        <v>1.037359575804473</v>
       </c>
       <c r="L13">
-        <v>0.8080528797190744</v>
+        <v>0.9789190100909292</v>
       </c>
       <c r="M13">
-        <v>0.7934904139486891</v>
+        <v>1.022501123229687</v>
       </c>
       <c r="N13">
-        <v>0.7883568634284327</v>
+        <v>0.9814992439511173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.754987989378873</v>
+        <v>0.9490787304578434</v>
       </c>
       <c r="D14">
-        <v>1.014804078894259</v>
+        <v>1.02331770287759</v>
       </c>
       <c r="E14">
-        <v>0.7930824309427982</v>
+        <v>0.9639267195138617</v>
       </c>
       <c r="F14">
-        <v>0.7781401897217155</v>
+        <v>1.008376890409196</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027610109610292</v>
+        <v>1.046107611131078</v>
       </c>
       <c r="J14">
-        <v>0.7872388939015295</v>
+        <v>0.9807737599009116</v>
       </c>
       <c r="K14">
-        <v>1.025787185017623</v>
+        <v>1.037829293662501</v>
       </c>
       <c r="L14">
-        <v>0.8080528797190744</v>
+        <v>0.9795804813784861</v>
       </c>
       <c r="M14">
-        <v>0.7934904139486891</v>
+        <v>1.023159305181218</v>
       </c>
       <c r="N14">
-        <v>0.7883568634284327</v>
+        <v>0.9821665711362936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.754987989378873</v>
+        <v>0.9497224602112062</v>
       </c>
       <c r="D15">
-        <v>1.014804078894259</v>
+        <v>1.02369859367959</v>
       </c>
       <c r="E15">
-        <v>0.7930824309427982</v>
+        <v>0.9644370183540097</v>
       </c>
       <c r="F15">
-        <v>0.7781401897217155</v>
+        <v>1.008877851795645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027610109610292</v>
+        <v>1.046222885926879</v>
       </c>
       <c r="J15">
-        <v>0.7872388939015295</v>
+        <v>0.9811826556808553</v>
       </c>
       <c r="K15">
-        <v>1.025787185017623</v>
+        <v>1.038117487533369</v>
       </c>
       <c r="L15">
-        <v>0.8080528797190744</v>
+        <v>0.979986416835127</v>
       </c>
       <c r="M15">
-        <v>0.7934904139486891</v>
+        <v>1.023563256262336</v>
       </c>
       <c r="N15">
-        <v>0.7883568634284327</v>
+        <v>0.9825760475951458</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.754987989378873</v>
+        <v>0.9534291944660321</v>
       </c>
       <c r="D16">
-        <v>1.014804078894259</v>
+        <v>1.025895053349557</v>
       </c>
       <c r="E16">
-        <v>0.7930824309427982</v>
+        <v>0.9673791580957722</v>
       </c>
       <c r="F16">
-        <v>0.7781401897217155</v>
+        <v>1.011766851524061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027610109610292</v>
+        <v>1.046883396807317</v>
       </c>
       <c r="J16">
-        <v>0.7872388939015295</v>
+        <v>0.9835374842815167</v>
       </c>
       <c r="K16">
-        <v>1.025787185017623</v>
+        <v>1.03977663930254</v>
       </c>
       <c r="L16">
-        <v>0.8080528797190744</v>
+        <v>0.9823249797140116</v>
       </c>
       <c r="M16">
-        <v>0.7934904139486891</v>
+        <v>1.02589078944471</v>
       </c>
       <c r="N16">
-        <v>0.7883568634284327</v>
+        <v>0.9849342203225226</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.754987989378873</v>
+        <v>0.9557201216974673</v>
       </c>
       <c r="D17">
-        <v>1.014804078894259</v>
+        <v>1.027255153344367</v>
       </c>
       <c r="E17">
-        <v>0.7930824309427982</v>
+        <v>0.9692007130558173</v>
       </c>
       <c r="F17">
-        <v>0.7781401897217155</v>
+        <v>1.013555983640564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027610109610292</v>
+        <v>1.047288656872753</v>
       </c>
       <c r="J17">
-        <v>0.7872388939015295</v>
+        <v>0.9849930925683349</v>
       </c>
       <c r="K17">
-        <v>1.025787185017623</v>
+        <v>1.040801601068615</v>
       </c>
       <c r="L17">
-        <v>0.8080528797190744</v>
+        <v>0.9837712115628995</v>
       </c>
       <c r="M17">
-        <v>0.7934904139486891</v>
+        <v>1.027330430100516</v>
       </c>
       <c r="N17">
-        <v>0.7883568634284327</v>
+        <v>0.9863918957400688</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.754987989378873</v>
+        <v>0.9570444595202459</v>
       </c>
       <c r="D18">
-        <v>1.014804078894259</v>
+        <v>1.028042244845754</v>
       </c>
       <c r="E18">
-        <v>0.7930824309427982</v>
+        <v>0.9702548268408042</v>
       </c>
       <c r="F18">
-        <v>0.7781401897217155</v>
+        <v>1.014591455711985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027610109610292</v>
+        <v>1.04752182363412</v>
       </c>
       <c r="J18">
-        <v>0.7872388939015295</v>
+        <v>0.9858346053049958</v>
       </c>
       <c r="K18">
-        <v>1.025787185017623</v>
+        <v>1.041393873303929</v>
       </c>
       <c r="L18">
-        <v>0.8080528797190744</v>
+        <v>0.984607544349582</v>
       </c>
       <c r="M18">
-        <v>0.7934904139486891</v>
+        <v>1.028162986802784</v>
       </c>
       <c r="N18">
-        <v>0.7883568634284327</v>
+        <v>0.9872346035213385</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.754987989378873</v>
+        <v>0.957494039682398</v>
       </c>
       <c r="D19">
-        <v>1.014804078894259</v>
+        <v>1.02830957857117</v>
       </c>
       <c r="E19">
-        <v>0.7930824309427982</v>
+        <v>0.9706128577576946</v>
       </c>
       <c r="F19">
-        <v>0.7781401897217155</v>
+        <v>1.014943170805022</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027610109610292</v>
+        <v>1.047600786894587</v>
       </c>
       <c r="J19">
-        <v>0.7872388939015295</v>
+        <v>0.9861202854938704</v>
       </c>
       <c r="K19">
-        <v>1.025787185017623</v>
+        <v>1.041594888642881</v>
       </c>
       <c r="L19">
-        <v>0.8080528797190744</v>
+        <v>0.9848915065628407</v>
       </c>
       <c r="M19">
-        <v>0.7934904139486891</v>
+        <v>1.028445668579946</v>
       </c>
       <c r="N19">
-        <v>0.7883568634284327</v>
+        <v>0.9875206894088494</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.754987989378873</v>
+        <v>0.955475568895908</v>
       </c>
       <c r="D20">
-        <v>1.014804078894259</v>
+        <v>1.027109875161817</v>
       </c>
       <c r="E20">
-        <v>0.7930824309427982</v>
+        <v>0.9690061489757289</v>
       </c>
       <c r="F20">
-        <v>0.7781401897217155</v>
+        <v>1.013364869031478</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027610109610292</v>
+        <v>1.047245509921665</v>
       </c>
       <c r="J20">
-        <v>0.7872388939015295</v>
+        <v>0.9848377024378526</v>
       </c>
       <c r="K20">
-        <v>1.025787185017623</v>
+        <v>1.04069221112907</v>
       </c>
       <c r="L20">
-        <v>0.8080528797190744</v>
+        <v>0.9836167973346518</v>
       </c>
       <c r="M20">
-        <v>0.7934904139486891</v>
+        <v>1.027176714884181</v>
       </c>
       <c r="N20">
-        <v>0.7883568634284327</v>
+        <v>0.9862362849377779</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.754987989378873</v>
+        <v>0.9487703431020059</v>
       </c>
       <c r="D21">
-        <v>1.014804078894259</v>
+        <v>1.023135292573736</v>
       </c>
       <c r="E21">
-        <v>0.7930824309427982</v>
+        <v>0.9636823218870595</v>
       </c>
       <c r="F21">
-        <v>0.7781401897217155</v>
+        <v>1.008136979104022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027610109610292</v>
+        <v>1.046052330376066</v>
       </c>
       <c r="J21">
-        <v>0.7872388939015295</v>
+        <v>0.9805778794782154</v>
       </c>
       <c r="K21">
-        <v>1.025787185017623</v>
+        <v>1.037691227234713</v>
       </c>
       <c r="L21">
-        <v>0.8080528797190744</v>
+        <v>0.9793860331832925</v>
       </c>
       <c r="M21">
-        <v>0.7934904139486891</v>
+        <v>1.022965816494589</v>
       </c>
       <c r="N21">
-        <v>0.7883568634284327</v>
+        <v>0.9819704125409291</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.754987989378873</v>
+        <v>0.9444381095045047</v>
       </c>
       <c r="D22">
-        <v>1.014804078894259</v>
+        <v>1.020577092464799</v>
       </c>
       <c r="E22">
-        <v>0.7930824309427982</v>
+        <v>0.960253662720541</v>
       </c>
       <c r="F22">
-        <v>0.7781401897217155</v>
+        <v>1.004772366306018</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027610109610292</v>
+        <v>1.045272052368941</v>
       </c>
       <c r="J22">
-        <v>0.7872388939015295</v>
+        <v>0.9778266543869898</v>
       </c>
       <c r="K22">
-        <v>1.025787185017623</v>
+        <v>1.035751645191598</v>
       </c>
       <c r="L22">
-        <v>0.8080528797190744</v>
+        <v>0.9766558775620759</v>
       </c>
       <c r="M22">
-        <v>0.7934904139486891</v>
+        <v>1.020249870840847</v>
       </c>
       <c r="N22">
-        <v>0.7883568634284327</v>
+        <v>0.9792152803945042</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.754987989378873</v>
+        <v>0.9467462006116447</v>
       </c>
       <c r="D23">
-        <v>1.014804078894259</v>
+        <v>1.021939012310994</v>
       </c>
       <c r="E23">
-        <v>0.7930824309427982</v>
+        <v>0.9620792756966934</v>
       </c>
       <c r="F23">
-        <v>0.7781401897217155</v>
+        <v>1.006563606785913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027610109610292</v>
+        <v>1.045688600372059</v>
       </c>
       <c r="J23">
-        <v>0.7872388939015295</v>
+        <v>0.979292305044864</v>
       </c>
       <c r="K23">
-        <v>1.025787185017623</v>
+        <v>1.036784983665003</v>
       </c>
       <c r="L23">
-        <v>0.8080528797190744</v>
+        <v>0.978110083580945</v>
       </c>
       <c r="M23">
-        <v>0.7934904139486891</v>
+        <v>1.021696323822082</v>
       </c>
       <c r="N23">
-        <v>0.7883568634284327</v>
+        <v>0.980683012444425</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.754987989378873</v>
+        <v>0.9555861085258526</v>
       </c>
       <c r="D24">
-        <v>1.014804078894259</v>
+        <v>1.02717553934542</v>
       </c>
       <c r="E24">
-        <v>0.7930824309427982</v>
+        <v>0.9690940899069608</v>
       </c>
       <c r="F24">
-        <v>0.7781401897217155</v>
+        <v>1.013451250474833</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027610109610292</v>
+        <v>1.047265016093934</v>
       </c>
       <c r="J24">
-        <v>0.7872388939015295</v>
+        <v>0.9849079397306423</v>
       </c>
       <c r="K24">
-        <v>1.025787185017623</v>
+        <v>1.04074165692242</v>
       </c>
       <c r="L24">
-        <v>0.8080528797190744</v>
+        <v>0.9836865927677038</v>
       </c>
       <c r="M24">
-        <v>0.7934904139486891</v>
+        <v>1.027246194264205</v>
       </c>
       <c r="N24">
-        <v>0.7883568634284327</v>
+        <v>0.9863066219755796</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.754987989378873</v>
+        <v>0.9653803539976987</v>
       </c>
       <c r="D25">
-        <v>1.014804078894259</v>
+        <v>1.033009085834141</v>
       </c>
       <c r="E25">
-        <v>0.7930824309427982</v>
+        <v>0.9769085811682204</v>
       </c>
       <c r="F25">
-        <v>0.7781401897217155</v>
+        <v>1.02112826352872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027610109610292</v>
+        <v>1.048968727956555</v>
       </c>
       <c r="J25">
-        <v>0.7872388939015295</v>
+        <v>0.9911317427550723</v>
       </c>
       <c r="K25">
-        <v>1.025787185017623</v>
+        <v>1.04511571173331</v>
       </c>
       <c r="L25">
-        <v>0.8080528797190744</v>
+        <v>0.9898762606261345</v>
       </c>
       <c r="M25">
-        <v>0.7934904139486891</v>
+        <v>1.033407210980541</v>
       </c>
       <c r="N25">
-        <v>0.7883568634284327</v>
+        <v>0.9925392635141845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9728598880125688</v>
+        <v>1.01609314246516</v>
       </c>
       <c r="D2">
-        <v>1.037480445270876</v>
+        <v>1.04613136794257</v>
       </c>
       <c r="E2">
-        <v>0.9829065794497395</v>
+        <v>1.017648189476872</v>
       </c>
       <c r="F2">
-        <v>1.027018919958186</v>
+        <v>1.048039328528655</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050231569409074</v>
+        <v>1.035654397595778</v>
       </c>
       <c r="J2">
-        <v>0.9958838068468079</v>
+        <v>1.021314919512776</v>
       </c>
       <c r="K2">
-        <v>1.048441191987572</v>
+        <v>1.048897663452835</v>
       </c>
       <c r="L2">
-        <v>0.9946093036981342</v>
+        <v>1.020496754285191</v>
       </c>
       <c r="M2">
-        <v>1.038114246573692</v>
+        <v>1.050800286572524</v>
       </c>
       <c r="N2">
-        <v>0.9972980760819997</v>
+        <v>1.022765303844943</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9781163570436707</v>
+        <v>1.017204715642761</v>
       </c>
       <c r="D3">
-        <v>1.04062836380666</v>
+        <v>1.046789464402056</v>
       </c>
       <c r="E3">
-        <v>0.9871378287263088</v>
+        <v>1.018596214336293</v>
       </c>
       <c r="F3">
-        <v>1.031171082119953</v>
+        <v>1.048948339898391</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051095155832593</v>
+        <v>1.035763180007724</v>
       </c>
       <c r="J3">
-        <v>0.9992219064385597</v>
+        <v>1.022060939589109</v>
       </c>
       <c r="K3">
-        <v>1.050766505588809</v>
+        <v>1.049367739711606</v>
       </c>
       <c r="L3">
-        <v>0.9979379725027834</v>
+        <v>1.021250026443115</v>
       </c>
       <c r="M3">
-        <v>1.041420072529331</v>
+        <v>1.051521011763711</v>
       </c>
       <c r="N3">
-        <v>1.000640916158057</v>
+        <v>1.023512383355354</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9814424693641985</v>
+        <v>1.017924426576686</v>
       </c>
       <c r="D4">
-        <v>1.042621599478404</v>
+        <v>1.047214778117057</v>
       </c>
       <c r="E4">
-        <v>0.9898221381524753</v>
+        <v>1.01921038460264</v>
       </c>
       <c r="F4">
-        <v>1.033802960939702</v>
+        <v>1.049536499637218</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051629974416332</v>
+        <v>1.035832007948652</v>
       </c>
       <c r="J4">
-        <v>1.00133309338524</v>
+        <v>1.022543613419927</v>
       </c>
       <c r="K4">
-        <v>1.05223145704742</v>
+        <v>1.049670708746801</v>
       </c>
       <c r="L4">
-        <v>1.000044973230103</v>
+        <v>1.021737563420935</v>
       </c>
       <c r="M4">
-        <v>1.043509838461192</v>
+        <v>1.051986707106567</v>
       </c>
       <c r="N4">
-        <v>1.002755101232359</v>
+        <v>1.023995742638375</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9828235302226046</v>
+        <v>1.018227101033186</v>
       </c>
       <c r="D5">
-        <v>1.043449375676996</v>
+        <v>1.04739345412321</v>
       </c>
       <c r="E5">
-        <v>0.9909383060758538</v>
+        <v>1.019468757428537</v>
       </c>
       <c r="F5">
-        <v>1.03489668720174</v>
+        <v>1.049783753026784</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05184916909438</v>
+        <v>1.03586056872539</v>
       </c>
       <c r="J5">
-        <v>1.0022093981203</v>
+        <v>1.022746517219511</v>
       </c>
       <c r="K5">
-        <v>1.052838049138095</v>
+        <v>1.049797787896901</v>
       </c>
       <c r="L5">
-        <v>1.000919961695255</v>
+        <v>1.021942552434032</v>
       </c>
       <c r="M5">
-        <v>1.044376908703538</v>
+        <v>1.052182325619244</v>
       </c>
       <c r="N5">
-        <v>1.003632650420656</v>
+        <v>1.024198934584628</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9830544269247182</v>
+        <v>1.018277927754283</v>
       </c>
       <c r="D6">
-        <v>1.043587773758527</v>
+        <v>1.047423447179581</v>
       </c>
       <c r="E6">
-        <v>0.9911250077996228</v>
+        <v>1.019512149655244</v>
       </c>
       <c r="F6">
-        <v>1.035079594673503</v>
+        <v>1.049825267391012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05188564467283</v>
+        <v>1.035865342226266</v>
       </c>
       <c r="J6">
-        <v>1.002355886889944</v>
+        <v>1.02278058493859</v>
       </c>
       <c r="K6">
-        <v>1.052939361176656</v>
+        <v>1.049819108057481</v>
       </c>
       <c r="L6">
-        <v>1.001066255052127</v>
+        <v>1.021976972656489</v>
       </c>
       <c r="M6">
-        <v>1.044521830739864</v>
+        <v>1.052215161418703</v>
       </c>
       <c r="N6">
-        <v>1.003779347221155</v>
+        <v>1.024233050683776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9814609899221216</v>
+        <v>1.017928470502606</v>
       </c>
       <c r="D7">
-        <v>1.042632699908274</v>
+        <v>1.047217166091386</v>
       </c>
       <c r="E7">
-        <v>0.9898371001754505</v>
+        <v>1.019213836303148</v>
       </c>
       <c r="F7">
-        <v>1.033817624792471</v>
+        <v>1.04953980348618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051632925353651</v>
+        <v>1.035832391051462</v>
       </c>
       <c r="J7">
-        <v>1.00134484620464</v>
+        <v>1.02254632467875</v>
       </c>
       <c r="K7">
-        <v>1.052239598507186</v>
+        <v>1.049672407922027</v>
       </c>
       <c r="L7">
-        <v>1.000056706737515</v>
+        <v>1.021740302382486</v>
       </c>
       <c r="M7">
-        <v>1.04352146891594</v>
+        <v>1.051989321600327</v>
       </c>
       <c r="N7">
-        <v>1.00276687074211</v>
+        <v>1.023998457747497</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.974652373860606</v>
+        <v>1.016468711233159</v>
       </c>
       <c r="D8">
-        <v>1.038553513985105</v>
+        <v>1.046353881101592</v>
       </c>
       <c r="E8">
-        <v>0.9843479653884559</v>
+        <v>1.017968426614403</v>
       </c>
       <c r="F8">
-        <v>1.028433776086721</v>
+        <v>1.04834653881018</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050528448217642</v>
+        <v>1.035691484060837</v>
       </c>
       <c r="J8">
-        <v>0.997022308770256</v>
+        <v>1.02156705102337</v>
       </c>
       <c r="K8">
-        <v>1.049235399247164</v>
+        <v>1.049056775952822</v>
       </c>
       <c r="L8">
-        <v>0.9957442122468336</v>
+        <v>1.020751301301716</v>
       </c>
       <c r="M8">
-        <v>1.039241890122473</v>
+        <v>1.051043995318694</v>
       </c>
       <c r="N8">
-        <v>0.9984381948087668</v>
+        <v>1.023017793411202</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9620423673997625</v>
+        <v>1.013899841300623</v>
       </c>
       <c r="D9">
-        <v>1.031017765856664</v>
+        <v>1.04482876483267</v>
       </c>
       <c r="E9">
-        <v>0.9742402871337191</v>
+        <v>1.015779494598929</v>
       </c>
       <c r="F9">
-        <v>1.018506866368047</v>
+        <v>1.046243677052117</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048393876814762</v>
+        <v>1.035431256894698</v>
       </c>
       <c r="J9">
-        <v>0.9890105816847401</v>
+        <v>1.019841057100759</v>
       </c>
       <c r="K9">
-        <v>1.043626876810063</v>
+        <v>1.047962808488495</v>
       </c>
       <c r="L9">
-        <v>0.9877655974578552</v>
+        <v>1.019009476606122</v>
       </c>
       <c r="M9">
-        <v>1.031306652596538</v>
+        <v>1.049373196786523</v>
       </c>
       <c r="N9">
-        <v>0.9904150901518315</v>
+        <v>1.021289348379247</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9531686556326581</v>
+        <v>1.012189518994097</v>
       </c>
       <c r="D10">
-        <v>1.025740495754779</v>
+        <v>1.04380949996781</v>
       </c>
       <c r="E10">
-        <v>0.967172153284257</v>
+        <v>1.014324010994939</v>
       </c>
       <c r="F10">
-        <v>1.011563551459636</v>
+        <v>1.044841734426725</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046837159940624</v>
+        <v>1.035249788504611</v>
       </c>
       <c r="J10">
-        <v>0.9833719524995604</v>
+        <v>1.018690134154438</v>
       </c>
       <c r="K10">
-        <v>1.039660046720217</v>
+        <v>1.047227426216062</v>
       </c>
       <c r="L10">
-        <v>0.9821605473061501</v>
+        <v>1.017848886053107</v>
       </c>
       <c r="M10">
-        <v>1.025727114681907</v>
+        <v>1.048256037142623</v>
       </c>
       <c r="N10">
-        <v>0.9847684534664495</v>
+        <v>1.020136790990329</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9492017656514283</v>
+        <v>1.01144945713167</v>
       </c>
       <c r="D11">
-        <v>1.023390488853999</v>
+        <v>1.043367569972488</v>
       </c>
       <c r="E11">
-        <v>0.9640242374307413</v>
+        <v>1.01369467490555</v>
       </c>
       <c r="F11">
-        <v>1.008472620848676</v>
+        <v>1.044234686810687</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046129655896322</v>
+        <v>1.035169324985274</v>
       </c>
       <c r="J11">
-        <v>0.9808519101769488</v>
+        <v>1.018191709556401</v>
       </c>
       <c r="K11">
-        <v>1.037884376538976</v>
+        <v>1.04690757390006</v>
       </c>
       <c r="L11">
-        <v>0.9796580627842897</v>
+        <v>1.017346486650415</v>
       </c>
       <c r="M11">
-        <v>1.023236505414135</v>
+        <v>1.047771529075733</v>
       </c>
       <c r="N11">
-        <v>0.9822448323946866</v>
+        <v>1.019637658572192</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9477082935625856</v>
+        <v>1.011174642316126</v>
       </c>
       <c r="D12">
-        <v>1.022507397603377</v>
+        <v>1.043203331763366</v>
       </c>
       <c r="E12">
-        <v>0.9628409817399277</v>
+        <v>1.013461046442278</v>
       </c>
       <c r="F12">
-        <v>1.00731115772003</v>
+        <v>1.044009204051422</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045861673880923</v>
+        <v>1.035139154429374</v>
       </c>
       <c r="J12">
-        <v>0.9799033247033998</v>
+        <v>1.0180065622172</v>
       </c>
       <c r="K12">
-        <v>1.037215732176243</v>
+        <v>1.046788553389632</v>
       </c>
       <c r="L12">
-        <v>0.9787164801090089</v>
+        <v>1.017159894743835</v>
       </c>
       <c r="M12">
-        <v>1.02229961525847</v>
+        <v>1.047591446643303</v>
       </c>
       <c r="N12">
-        <v>0.9812948998209607</v>
+        <v>1.019452248302533</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9480295749800882</v>
+        <v>1.011233587551235</v>
       </c>
       <c r="D13">
-        <v>1.022697292419191</v>
+        <v>1.043238565269972</v>
       </c>
       <c r="E13">
-        <v>0.9630954411970971</v>
+        <v>1.013511154431224</v>
       </c>
       <c r="F13">
-        <v>1.007560911101293</v>
+        <v>1.044057570767941</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045919394204982</v>
+        <v>1.035145638904648</v>
       </c>
       <c r="J13">
-        <v>0.9801073790529747</v>
+        <v>1.018046277415904</v>
       </c>
       <c r="K13">
-        <v>1.037359575804473</v>
+        <v>1.046814093317007</v>
       </c>
       <c r="L13">
-        <v>0.9789190100909292</v>
+        <v>1.017199918364145</v>
       </c>
       <c r="M13">
-        <v>1.022501123229687</v>
+        <v>1.047630080101298</v>
       </c>
       <c r="N13">
-        <v>0.9814992439511173</v>
+        <v>1.019492019901375</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9490787304578434</v>
+        <v>1.01142673928519</v>
       </c>
       <c r="D14">
-        <v>1.02331770287759</v>
+        <v>1.043353995730312</v>
       </c>
       <c r="E14">
-        <v>0.9639267195138617</v>
+        <v>1.013675360349845</v>
       </c>
       <c r="F14">
-        <v>1.008376890409196</v>
+        <v>1.044216048291981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046107611131078</v>
+        <v>1.03516683684371</v>
       </c>
       <c r="J14">
-        <v>0.9807737599009116</v>
+        <v>1.018176405429448</v>
       </c>
       <c r="K14">
-        <v>1.037829293662501</v>
+        <v>1.046897739967819</v>
       </c>
       <c r="L14">
-        <v>0.9795804813784861</v>
+        <v>1.017331062464714</v>
       </c>
       <c r="M14">
-        <v>1.023159305181218</v>
+        <v>1.047756645735799</v>
       </c>
       <c r="N14">
-        <v>0.9821665711362936</v>
+        <v>1.019622332711624</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9497224602112062</v>
+        <v>1.011545756635687</v>
       </c>
       <c r="D15">
-        <v>1.02369859367959</v>
+        <v>1.043425104935347</v>
       </c>
       <c r="E15">
-        <v>0.9644370183540097</v>
+        <v>1.013776550924567</v>
       </c>
       <c r="F15">
-        <v>1.008877851795645</v>
+        <v>1.044313691797242</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046222885926879</v>
+        <v>1.035179860134948</v>
       </c>
       <c r="J15">
-        <v>0.9811826556808553</v>
+        <v>1.018256580231138</v>
       </c>
       <c r="K15">
-        <v>1.038117487533369</v>
+        <v>1.046949249227421</v>
       </c>
       <c r="L15">
-        <v>0.979986416835127</v>
+        <v>1.017411867534896</v>
       </c>
       <c r="M15">
-        <v>1.023563256262336</v>
+        <v>1.047834611855593</v>
       </c>
       <c r="N15">
-        <v>0.9825760475951458</v>
+        <v>1.019702621370729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9534291944660321</v>
+        <v>1.01223864532341</v>
       </c>
       <c r="D16">
-        <v>1.025895053349557</v>
+        <v>1.043838817293395</v>
       </c>
       <c r="E16">
-        <v>0.9673791580957722</v>
+        <v>1.014365796883352</v>
       </c>
       <c r="F16">
-        <v>1.011766851524061</v>
+        <v>1.044882022350592</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046883396807317</v>
+        <v>1.035255088908458</v>
       </c>
       <c r="J16">
-        <v>0.9835374842815167</v>
+        <v>1.018723211522991</v>
       </c>
       <c r="K16">
-        <v>1.03977663930254</v>
+        <v>1.047248623804812</v>
       </c>
       <c r="L16">
-        <v>0.9823249797140116</v>
+        <v>1.017882231677582</v>
       </c>
       <c r="M16">
-        <v>1.02589078944471</v>
+        <v>1.048288176215346</v>
       </c>
       <c r="N16">
-        <v>0.9849342203225226</v>
+        <v>1.020169915332539</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9557201216974673</v>
+        <v>1.012673414429248</v>
       </c>
       <c r="D17">
-        <v>1.027255153344367</v>
+        <v>1.044098173582615</v>
       </c>
       <c r="E17">
-        <v>0.9692007130558173</v>
+        <v>1.014735655759211</v>
       </c>
       <c r="F17">
-        <v>1.013555983640564</v>
+        <v>1.04523852278291</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047288656872753</v>
+        <v>1.035301773285984</v>
       </c>
       <c r="J17">
-        <v>0.9849930925683349</v>
+        <v>1.019015898875742</v>
       </c>
       <c r="K17">
-        <v>1.040801601068615</v>
+        <v>1.047436032429017</v>
       </c>
       <c r="L17">
-        <v>0.9837712115628995</v>
+        <v>1.018177317200724</v>
       </c>
       <c r="M17">
-        <v>1.027330430100516</v>
+        <v>1.048572479704704</v>
       </c>
       <c r="N17">
-        <v>0.9863918957400688</v>
+        <v>1.020463018334902</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9570444595202459</v>
+        <v>1.012927058024637</v>
       </c>
       <c r="D18">
-        <v>1.028042244845754</v>
+        <v>1.044249395493985</v>
       </c>
       <c r="E18">
-        <v>0.9702548268408042</v>
+        <v>1.014951474814405</v>
       </c>
       <c r="F18">
-        <v>1.014591455711985</v>
+        <v>1.045446463633679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04752182363412</v>
+        <v>1.035328821432371</v>
       </c>
       <c r="J18">
-        <v>0.9858346053049958</v>
+        <v>1.019186611965337</v>
       </c>
       <c r="K18">
-        <v>1.041393873303929</v>
+        <v>1.047545206945481</v>
       </c>
       <c r="L18">
-        <v>0.984607544349582</v>
+        <v>1.018349449486294</v>
       </c>
       <c r="M18">
-        <v>1.028162986802784</v>
+        <v>1.048738234690639</v>
       </c>
       <c r="N18">
-        <v>0.9872346035213385</v>
+        <v>1.020633973856666</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.957494039682398</v>
+        <v>1.013013552465369</v>
       </c>
       <c r="D19">
-        <v>1.02830957857117</v>
+        <v>1.044300948671112</v>
       </c>
       <c r="E19">
-        <v>0.9706128577576946</v>
+        <v>1.01502507822658</v>
       </c>
       <c r="F19">
-        <v>1.014943170805022</v>
+        <v>1.045517366080009</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047600786894587</v>
+        <v>1.035338013252149</v>
       </c>
       <c r="J19">
-        <v>0.9861202854938704</v>
+        <v>1.019244819620204</v>
       </c>
       <c r="K19">
-        <v>1.041594888642881</v>
+        <v>1.047582409228731</v>
       </c>
       <c r="L19">
-        <v>0.9848915065628407</v>
+        <v>1.018408144504654</v>
       </c>
       <c r="M19">
-        <v>1.028445668579946</v>
+        <v>1.048794740196104</v>
       </c>
       <c r="N19">
-        <v>0.9875206894088494</v>
+        <v>1.02069226417308</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.955475568895908</v>
+        <v>1.012626762639507</v>
       </c>
       <c r="D20">
-        <v>1.027109875161817</v>
+        <v>1.044070352910907</v>
       </c>
       <c r="E20">
-        <v>0.9690061489757289</v>
+        <v>1.014695964440876</v>
       </c>
       <c r="F20">
-        <v>1.013364869031478</v>
+        <v>1.04520027363206</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047245509921665</v>
+        <v>1.035296783321148</v>
       </c>
       <c r="J20">
-        <v>0.9848377024378526</v>
+        <v>1.018984496965033</v>
       </c>
       <c r="K20">
-        <v>1.04069221112907</v>
+        <v>1.047415939497595</v>
       </c>
       <c r="L20">
-        <v>0.9836167973346518</v>
+        <v>1.018145655879913</v>
       </c>
       <c r="M20">
-        <v>1.027176714884181</v>
+        <v>1.048541984320715</v>
       </c>
       <c r="N20">
-        <v>0.9862362849377779</v>
+        <v>1.020431571829879</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9487703431020059</v>
+        <v>1.011369858791944</v>
       </c>
       <c r="D21">
-        <v>1.023135292573736</v>
+        <v>1.043320006690225</v>
       </c>
       <c r="E21">
-        <v>0.9636823218870595</v>
+        <v>1.013627002072736</v>
       </c>
       <c r="F21">
-        <v>1.008136979104022</v>
+        <v>1.044169380551981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046052330376066</v>
+        <v>1.035160602381434</v>
       </c>
       <c r="J21">
-        <v>0.9805778794782154</v>
+        <v>1.018138086256828</v>
       </c>
       <c r="K21">
-        <v>1.037691227234713</v>
+        <v>1.046873113987005</v>
       </c>
       <c r="L21">
-        <v>0.9793860331832925</v>
+        <v>1.017292443199704</v>
       </c>
       <c r="M21">
-        <v>1.022965816494589</v>
+        <v>1.047719378463863</v>
       </c>
       <c r="N21">
-        <v>0.9819704125409291</v>
+        <v>1.019583959121383</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9444381095045047</v>
+        <v>1.010580039178075</v>
       </c>
       <c r="D22">
-        <v>1.020577092464799</v>
+        <v>1.04284773902988</v>
       </c>
       <c r="E22">
-        <v>0.960253662720541</v>
+        <v>1.012955684007076</v>
       </c>
       <c r="F22">
-        <v>1.004772366306018</v>
+        <v>1.043521227962742</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045272052368941</v>
+        <v>1.035073343995386</v>
       </c>
       <c r="J22">
-        <v>0.9778266543869898</v>
+        <v>1.017605854878073</v>
       </c>
       <c r="K22">
-        <v>1.035751645191598</v>
+        <v>1.046530585624628</v>
       </c>
       <c r="L22">
-        <v>0.9766558775620759</v>
+        <v>1.016756119487359</v>
       </c>
       <c r="M22">
-        <v>1.020249870840847</v>
+        <v>1.047201511275958</v>
       </c>
       <c r="N22">
-        <v>0.9792152803945042</v>
+        <v>1.019050971913023</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9467462006116447</v>
+        <v>1.010998695535732</v>
       </c>
       <c r="D23">
-        <v>1.021939012310994</v>
+        <v>1.043098143445499</v>
       </c>
       <c r="E23">
-        <v>0.9620792756966934</v>
+        <v>1.013311488358428</v>
       </c>
       <c r="F23">
-        <v>1.006563606785913</v>
+        <v>1.043864824445042</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045688600372059</v>
+        <v>1.03511975619175</v>
       </c>
       <c r="J23">
-        <v>0.979292305044864</v>
+        <v>1.017888006472803</v>
       </c>
       <c r="K23">
-        <v>1.036784983665003</v>
+        <v>1.046712282789473</v>
       </c>
       <c r="L23">
-        <v>0.978110083580945</v>
+        <v>1.017040422998756</v>
       </c>
       <c r="M23">
-        <v>1.021696323822082</v>
+        <v>1.047476104841717</v>
       </c>
       <c r="N23">
-        <v>0.980683012444425</v>
+        <v>1.019333524195381</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9555861085258526</v>
+        <v>1.012647842419988</v>
       </c>
       <c r="D24">
-        <v>1.02717553934542</v>
+        <v>1.044082924048791</v>
       </c>
       <c r="E24">
-        <v>0.9690940899069608</v>
+        <v>1.014713898971354</v>
       </c>
       <c r="F24">
-        <v>1.013451250474833</v>
+        <v>1.04521755677642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047265016093934</v>
+        <v>1.03529903863405</v>
       </c>
       <c r="J24">
-        <v>0.9849079397306423</v>
+        <v>1.018998686156719</v>
       </c>
       <c r="K24">
-        <v>1.04074165692242</v>
+        <v>1.04742501905417</v>
       </c>
       <c r="L24">
-        <v>0.9836865927677038</v>
+        <v>1.018159962224898</v>
       </c>
       <c r="M24">
-        <v>1.027246194264205</v>
+        <v>1.048555764102107</v>
       </c>
       <c r="N24">
-        <v>0.9863066219755796</v>
+        <v>1.020445781171845</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9653803539976987</v>
+        <v>1.014563555161645</v>
       </c>
       <c r="D25">
-        <v>1.033009085834141</v>
+        <v>1.045223495524088</v>
       </c>
       <c r="E25">
-        <v>0.9769085811682204</v>
+        <v>1.016344716402859</v>
       </c>
       <c r="F25">
-        <v>1.02112826352872</v>
+        <v>1.046787329498541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048968727956555</v>
+        <v>1.035499941805617</v>
       </c>
       <c r="J25">
-        <v>0.9911317427550723</v>
+        <v>1.020287313863202</v>
       </c>
       <c r="K25">
-        <v>1.04511571173331</v>
+        <v>1.048246700988321</v>
       </c>
       <c r="L25">
-        <v>0.9898762606261345</v>
+        <v>1.019459670186604</v>
       </c>
       <c r="M25">
-        <v>1.033407210980541</v>
+        <v>1.049805724413429</v>
       </c>
       <c r="N25">
-        <v>0.9925392635141845</v>
+        <v>1.021736238877479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01609314246516</v>
+        <v>0.9728598880125691</v>
       </c>
       <c r="D2">
-        <v>1.04613136794257</v>
+        <v>1.037480445270876</v>
       </c>
       <c r="E2">
-        <v>1.017648189476872</v>
+        <v>0.9829065794497395</v>
       </c>
       <c r="F2">
-        <v>1.048039328528655</v>
+        <v>1.027018919958186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035654397595778</v>
+        <v>1.050231569409074</v>
       </c>
       <c r="J2">
-        <v>1.021314919512776</v>
+        <v>0.995883806846808</v>
       </c>
       <c r="K2">
-        <v>1.048897663452835</v>
+        <v>1.048441191987572</v>
       </c>
       <c r="L2">
-        <v>1.020496754285191</v>
+        <v>0.9946093036981342</v>
       </c>
       <c r="M2">
-        <v>1.050800286572524</v>
+        <v>1.038114246573692</v>
       </c>
       <c r="N2">
-        <v>1.022765303844943</v>
+        <v>0.9972980760819998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017204715642761</v>
+        <v>0.9781163570436706</v>
       </c>
       <c r="D3">
-        <v>1.046789464402056</v>
+        <v>1.04062836380666</v>
       </c>
       <c r="E3">
-        <v>1.018596214336293</v>
+        <v>0.9871378287263084</v>
       </c>
       <c r="F3">
-        <v>1.048948339898391</v>
+        <v>1.031171082119954</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035763180007724</v>
+        <v>1.051095155832594</v>
       </c>
       <c r="J3">
-        <v>1.022060939589109</v>
+        <v>0.9992219064385593</v>
       </c>
       <c r="K3">
-        <v>1.049367739711606</v>
+        <v>1.050766505588809</v>
       </c>
       <c r="L3">
-        <v>1.021250026443115</v>
+        <v>0.9979379725027829</v>
       </c>
       <c r="M3">
-        <v>1.051521011763711</v>
+        <v>1.041420072529331</v>
       </c>
       <c r="N3">
-        <v>1.023512383355354</v>
+        <v>1.000640916158057</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017924426576686</v>
+        <v>0.981442469364199</v>
       </c>
       <c r="D4">
-        <v>1.047214778117057</v>
+        <v>1.042621599478404</v>
       </c>
       <c r="E4">
-        <v>1.01921038460264</v>
+        <v>0.9898221381524754</v>
       </c>
       <c r="F4">
-        <v>1.049536499637218</v>
+        <v>1.033802960939703</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035832007948652</v>
+        <v>1.051629974416332</v>
       </c>
       <c r="J4">
-        <v>1.022543613419927</v>
+        <v>1.001333093385241</v>
       </c>
       <c r="K4">
-        <v>1.049670708746801</v>
+        <v>1.05223145704742</v>
       </c>
       <c r="L4">
-        <v>1.021737563420935</v>
+        <v>1.000044973230103</v>
       </c>
       <c r="M4">
-        <v>1.051986707106567</v>
+        <v>1.043509838461192</v>
       </c>
       <c r="N4">
-        <v>1.023995742638375</v>
+        <v>1.002755101232359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018227101033186</v>
+        <v>0.9828235302226046</v>
       </c>
       <c r="D5">
-        <v>1.04739345412321</v>
+        <v>1.043449375676996</v>
       </c>
       <c r="E5">
-        <v>1.019468757428537</v>
+        <v>0.9909383060758539</v>
       </c>
       <c r="F5">
-        <v>1.049783753026784</v>
+        <v>1.03489668720174</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03586056872539</v>
+        <v>1.05184916909438</v>
       </c>
       <c r="J5">
-        <v>1.022746517219511</v>
+        <v>1.0022093981203</v>
       </c>
       <c r="K5">
-        <v>1.049797787896901</v>
+        <v>1.052838049138095</v>
       </c>
       <c r="L5">
-        <v>1.021942552434032</v>
+        <v>1.000919961695255</v>
       </c>
       <c r="M5">
-        <v>1.052182325619244</v>
+        <v>1.044376908703538</v>
       </c>
       <c r="N5">
-        <v>1.024198934584628</v>
+        <v>1.003632650420655</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018277927754283</v>
+        <v>0.9830544269247183</v>
       </c>
       <c r="D6">
-        <v>1.047423447179581</v>
+        <v>1.043587773758527</v>
       </c>
       <c r="E6">
-        <v>1.019512149655244</v>
+        <v>0.9911250077996228</v>
       </c>
       <c r="F6">
-        <v>1.049825267391012</v>
+        <v>1.035079594673503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035865342226266</v>
+        <v>1.05188564467283</v>
       </c>
       <c r="J6">
-        <v>1.02278058493859</v>
+        <v>1.002355886889944</v>
       </c>
       <c r="K6">
-        <v>1.049819108057481</v>
+        <v>1.052939361176656</v>
       </c>
       <c r="L6">
-        <v>1.021976972656489</v>
+        <v>1.001066255052127</v>
       </c>
       <c r="M6">
-        <v>1.052215161418703</v>
+        <v>1.044521830739864</v>
       </c>
       <c r="N6">
-        <v>1.024233050683776</v>
+        <v>1.003779347221155</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017928470502606</v>
+        <v>0.9814609899221221</v>
       </c>
       <c r="D7">
-        <v>1.047217166091386</v>
+        <v>1.042632699908274</v>
       </c>
       <c r="E7">
-        <v>1.019213836303148</v>
+        <v>0.9898371001754507</v>
       </c>
       <c r="F7">
-        <v>1.04953980348618</v>
+        <v>1.033817624792471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035832391051462</v>
+        <v>1.05163292535365</v>
       </c>
       <c r="J7">
-        <v>1.02254632467875</v>
+        <v>1.00134484620464</v>
       </c>
       <c r="K7">
-        <v>1.049672407922027</v>
+        <v>1.052239598507186</v>
       </c>
       <c r="L7">
-        <v>1.021740302382486</v>
+        <v>1.000056706737515</v>
       </c>
       <c r="M7">
-        <v>1.051989321600327</v>
+        <v>1.04352146891594</v>
       </c>
       <c r="N7">
-        <v>1.023998457747497</v>
+        <v>1.00276687074211</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016468711233159</v>
+        <v>0.9746523738606054</v>
       </c>
       <c r="D8">
-        <v>1.046353881101592</v>
+        <v>1.038553513985104</v>
       </c>
       <c r="E8">
-        <v>1.017968426614403</v>
+        <v>0.9843479653884553</v>
       </c>
       <c r="F8">
-        <v>1.04834653881018</v>
+        <v>1.028433776086721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035691484060837</v>
+        <v>1.050528448217642</v>
       </c>
       <c r="J8">
-        <v>1.02156705102337</v>
+        <v>0.9970223087702555</v>
       </c>
       <c r="K8">
-        <v>1.049056775952822</v>
+        <v>1.049235399247163</v>
       </c>
       <c r="L8">
-        <v>1.020751301301716</v>
+        <v>0.9957442122468331</v>
       </c>
       <c r="M8">
-        <v>1.051043995318694</v>
+        <v>1.039241890122473</v>
       </c>
       <c r="N8">
-        <v>1.023017793411202</v>
+        <v>0.9984381948087667</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013899841300623</v>
+        <v>0.962042367399762</v>
       </c>
       <c r="D9">
-        <v>1.04482876483267</v>
+        <v>1.031017765856664</v>
       </c>
       <c r="E9">
-        <v>1.015779494598929</v>
+        <v>0.9742402871337181</v>
       </c>
       <c r="F9">
-        <v>1.046243677052117</v>
+        <v>1.018506866368047</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035431256894698</v>
+        <v>1.048393876814762</v>
       </c>
       <c r="J9">
-        <v>1.019841057100759</v>
+        <v>0.9890105816847395</v>
       </c>
       <c r="K9">
-        <v>1.047962808488495</v>
+        <v>1.043626876810063</v>
       </c>
       <c r="L9">
-        <v>1.019009476606122</v>
+        <v>0.9877655974578544</v>
       </c>
       <c r="M9">
-        <v>1.049373196786523</v>
+        <v>1.031306652596539</v>
       </c>
       <c r="N9">
-        <v>1.021289348379247</v>
+        <v>0.990415090151831</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012189518994097</v>
+        <v>0.9531686556326578</v>
       </c>
       <c r="D10">
-        <v>1.04380949996781</v>
+        <v>1.025740495754779</v>
       </c>
       <c r="E10">
-        <v>1.014324010994939</v>
+        <v>0.9671721532842568</v>
       </c>
       <c r="F10">
-        <v>1.044841734426725</v>
+        <v>1.011563551459635</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035249788504611</v>
+        <v>1.046837159940624</v>
       </c>
       <c r="J10">
-        <v>1.018690134154438</v>
+        <v>0.9833719524995603</v>
       </c>
       <c r="K10">
-        <v>1.047227426216062</v>
+        <v>1.039660046720217</v>
       </c>
       <c r="L10">
-        <v>1.017848886053107</v>
+        <v>0.9821605473061499</v>
       </c>
       <c r="M10">
-        <v>1.048256037142623</v>
+        <v>1.025727114681907</v>
       </c>
       <c r="N10">
-        <v>1.020136790990329</v>
+        <v>0.9847684534664494</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01144945713167</v>
+        <v>0.9492017656514296</v>
       </c>
       <c r="D11">
-        <v>1.043367569972488</v>
+        <v>1.023390488854</v>
       </c>
       <c r="E11">
-        <v>1.01369467490555</v>
+        <v>0.9640242374307423</v>
       </c>
       <c r="F11">
-        <v>1.044234686810687</v>
+        <v>1.008472620848677</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035169324985274</v>
+        <v>1.046129655896323</v>
       </c>
       <c r="J11">
-        <v>1.018191709556401</v>
+        <v>0.9808519101769498</v>
       </c>
       <c r="K11">
-        <v>1.04690757390006</v>
+        <v>1.037884376538976</v>
       </c>
       <c r="L11">
-        <v>1.017346486650415</v>
+        <v>0.9796580627842905</v>
       </c>
       <c r="M11">
-        <v>1.047771529075733</v>
+        <v>1.023236505414136</v>
       </c>
       <c r="N11">
-        <v>1.019637658572192</v>
+        <v>0.9822448323946879</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011174642316126</v>
+        <v>0.9477082935625858</v>
       </c>
       <c r="D12">
-        <v>1.043203331763366</v>
+        <v>1.022507397603377</v>
       </c>
       <c r="E12">
-        <v>1.013461046442278</v>
+        <v>0.9628409817399284</v>
       </c>
       <c r="F12">
-        <v>1.044009204051422</v>
+        <v>1.00731115772003</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035139154429374</v>
+        <v>1.045861673880923</v>
       </c>
       <c r="J12">
-        <v>1.0180065622172</v>
+        <v>0.9799033247033999</v>
       </c>
       <c r="K12">
-        <v>1.046788553389632</v>
+        <v>1.037215732176244</v>
       </c>
       <c r="L12">
-        <v>1.017159894743835</v>
+        <v>0.9787164801090091</v>
       </c>
       <c r="M12">
-        <v>1.047591446643303</v>
+        <v>1.02229961525847</v>
       </c>
       <c r="N12">
-        <v>1.019452248302533</v>
+        <v>0.981294899820961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011233587551235</v>
+        <v>0.9480295749800884</v>
       </c>
       <c r="D13">
-        <v>1.043238565269972</v>
+        <v>1.022697292419191</v>
       </c>
       <c r="E13">
-        <v>1.013511154431224</v>
+        <v>0.963095441197098</v>
       </c>
       <c r="F13">
-        <v>1.044057570767941</v>
+        <v>1.007560911101293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035145638904648</v>
+        <v>1.045919394204982</v>
       </c>
       <c r="J13">
-        <v>1.018046277415904</v>
+        <v>0.9801073790529752</v>
       </c>
       <c r="K13">
-        <v>1.046814093317007</v>
+        <v>1.037359575804474</v>
       </c>
       <c r="L13">
-        <v>1.017199918364145</v>
+        <v>0.9789190100909301</v>
       </c>
       <c r="M13">
-        <v>1.047630080101298</v>
+        <v>1.022501123229687</v>
       </c>
       <c r="N13">
-        <v>1.019492019901375</v>
+        <v>0.9814992439511178</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01142673928519</v>
+        <v>0.9490787304578436</v>
       </c>
       <c r="D14">
-        <v>1.043353995730312</v>
+        <v>1.023317702877591</v>
       </c>
       <c r="E14">
-        <v>1.013675360349845</v>
+        <v>0.9639267195138618</v>
       </c>
       <c r="F14">
-        <v>1.044216048291981</v>
+        <v>1.008376890409196</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03516683684371</v>
+        <v>1.046107611131078</v>
       </c>
       <c r="J14">
-        <v>1.018176405429448</v>
+        <v>0.9807737599009119</v>
       </c>
       <c r="K14">
-        <v>1.046897739967819</v>
+        <v>1.037829293662501</v>
       </c>
       <c r="L14">
-        <v>1.017331062464714</v>
+        <v>0.9795804813784862</v>
       </c>
       <c r="M14">
-        <v>1.047756645735799</v>
+        <v>1.023159305181218</v>
       </c>
       <c r="N14">
-        <v>1.019622332711624</v>
+        <v>0.982166571136294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011545756635687</v>
+        <v>0.9497224602112057</v>
       </c>
       <c r="D15">
-        <v>1.043425104935347</v>
+        <v>1.02369859367959</v>
       </c>
       <c r="E15">
-        <v>1.013776550924567</v>
+        <v>0.9644370183540089</v>
       </c>
       <c r="F15">
-        <v>1.044313691797242</v>
+        <v>1.008877851795644</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035179860134948</v>
+        <v>1.046222885926879</v>
       </c>
       <c r="J15">
-        <v>1.018256580231138</v>
+        <v>0.9811826556808549</v>
       </c>
       <c r="K15">
-        <v>1.046949249227421</v>
+        <v>1.038117487533369</v>
       </c>
       <c r="L15">
-        <v>1.017411867534896</v>
+        <v>0.9799864168351263</v>
       </c>
       <c r="M15">
-        <v>1.047834611855593</v>
+        <v>1.023563256262335</v>
       </c>
       <c r="N15">
-        <v>1.019702621370729</v>
+        <v>0.9825760475951454</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01223864532341</v>
+        <v>0.9534291944660315</v>
       </c>
       <c r="D16">
-        <v>1.043838817293395</v>
+        <v>1.025895053349557</v>
       </c>
       <c r="E16">
-        <v>1.014365796883352</v>
+        <v>0.9673791580957714</v>
       </c>
       <c r="F16">
-        <v>1.044882022350592</v>
+        <v>1.011766851524061</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035255088908458</v>
+        <v>1.046883396807317</v>
       </c>
       <c r="J16">
-        <v>1.018723211522991</v>
+        <v>0.983537484281516</v>
       </c>
       <c r="K16">
-        <v>1.047248623804812</v>
+        <v>1.039776639302541</v>
       </c>
       <c r="L16">
-        <v>1.017882231677582</v>
+        <v>0.9823249797140107</v>
       </c>
       <c r="M16">
-        <v>1.048288176215346</v>
+        <v>1.02589078944471</v>
       </c>
       <c r="N16">
-        <v>1.020169915332539</v>
+        <v>0.9849342203225221</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012673414429248</v>
+        <v>0.9557201216974673</v>
       </c>
       <c r="D17">
-        <v>1.044098173582615</v>
+        <v>1.027255153344368</v>
       </c>
       <c r="E17">
-        <v>1.014735655759211</v>
+        <v>0.9692007130558176</v>
       </c>
       <c r="F17">
-        <v>1.04523852278291</v>
+        <v>1.013555983640564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035301773285984</v>
+        <v>1.047288656872753</v>
       </c>
       <c r="J17">
-        <v>1.019015898875742</v>
+        <v>0.984993092568335</v>
       </c>
       <c r="K17">
-        <v>1.047436032429017</v>
+        <v>1.040801601068615</v>
       </c>
       <c r="L17">
-        <v>1.018177317200724</v>
+        <v>0.9837712115628995</v>
       </c>
       <c r="M17">
-        <v>1.048572479704704</v>
+        <v>1.027330430100516</v>
       </c>
       <c r="N17">
-        <v>1.020463018334902</v>
+        <v>0.9863918957400688</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012927058024637</v>
+        <v>0.9570444595202467</v>
       </c>
       <c r="D18">
-        <v>1.044249395493985</v>
+        <v>1.028042244845754</v>
       </c>
       <c r="E18">
-        <v>1.014951474814405</v>
+        <v>0.9702548268408051</v>
       </c>
       <c r="F18">
-        <v>1.045446463633679</v>
+        <v>1.014591455711986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035328821432371</v>
+        <v>1.047521823634119</v>
       </c>
       <c r="J18">
-        <v>1.019186611965337</v>
+        <v>0.9858346053049966</v>
       </c>
       <c r="K18">
-        <v>1.047545206945481</v>
+        <v>1.041393873303929</v>
       </c>
       <c r="L18">
-        <v>1.018349449486294</v>
+        <v>0.9846075443495829</v>
       </c>
       <c r="M18">
-        <v>1.048738234690639</v>
+        <v>1.028162986802784</v>
       </c>
       <c r="N18">
-        <v>1.020633973856666</v>
+        <v>0.9872346035213393</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013013552465369</v>
+        <v>0.9574940396823979</v>
       </c>
       <c r="D19">
-        <v>1.044300948671112</v>
+        <v>1.02830957857117</v>
       </c>
       <c r="E19">
-        <v>1.01502507822658</v>
+        <v>0.970612857757694</v>
       </c>
       <c r="F19">
-        <v>1.045517366080009</v>
+        <v>1.014943170805021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035338013252149</v>
+        <v>1.047600786894587</v>
       </c>
       <c r="J19">
-        <v>1.019244819620204</v>
+        <v>0.9861202854938701</v>
       </c>
       <c r="K19">
-        <v>1.047582409228731</v>
+        <v>1.041594888642881</v>
       </c>
       <c r="L19">
-        <v>1.018408144504654</v>
+        <v>0.9848915065628405</v>
       </c>
       <c r="M19">
-        <v>1.048794740196104</v>
+        <v>1.028445668579946</v>
       </c>
       <c r="N19">
-        <v>1.02069226417308</v>
+        <v>0.9875206894088493</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012626762639507</v>
+        <v>0.9554755688959082</v>
       </c>
       <c r="D20">
-        <v>1.044070352910907</v>
+        <v>1.027109875161817</v>
       </c>
       <c r="E20">
-        <v>1.014695964440876</v>
+        <v>0.9690061489757293</v>
       </c>
       <c r="F20">
-        <v>1.04520027363206</v>
+        <v>1.013364869031478</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035296783321148</v>
+        <v>1.047245509921665</v>
       </c>
       <c r="J20">
-        <v>1.018984496965033</v>
+        <v>0.984837702437853</v>
       </c>
       <c r="K20">
-        <v>1.047415939497595</v>
+        <v>1.04069221112907</v>
       </c>
       <c r="L20">
-        <v>1.018145655879913</v>
+        <v>0.9836167973346521</v>
       </c>
       <c r="M20">
-        <v>1.048541984320715</v>
+        <v>1.027176714884181</v>
       </c>
       <c r="N20">
-        <v>1.020431571829879</v>
+        <v>0.9862362849377783</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011369858791944</v>
+        <v>0.9487703431020057</v>
       </c>
       <c r="D21">
-        <v>1.043320006690225</v>
+        <v>1.023135292573735</v>
       </c>
       <c r="E21">
-        <v>1.013627002072736</v>
+        <v>0.9636823218870586</v>
       </c>
       <c r="F21">
-        <v>1.044169380551981</v>
+        <v>1.008136979104021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035160602381434</v>
+        <v>1.046052330376066</v>
       </c>
       <c r="J21">
-        <v>1.018138086256828</v>
+        <v>0.9805778794782151</v>
       </c>
       <c r="K21">
-        <v>1.046873113987005</v>
+        <v>1.037691227234713</v>
       </c>
       <c r="L21">
-        <v>1.017292443199704</v>
+        <v>0.9793860331832919</v>
       </c>
       <c r="M21">
-        <v>1.047719378463863</v>
+        <v>1.022965816494589</v>
       </c>
       <c r="N21">
-        <v>1.019583959121383</v>
+        <v>0.9819704125409288</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>1.010580039178075</v>
+        <v>0.9444381095045051</v>
       </c>
       <c r="D22">
-        <v>1.04284773902988</v>
+        <v>1.020577092464799</v>
       </c>
       <c r="E22">
-        <v>1.012955684007076</v>
+        <v>0.9602536627205414</v>
       </c>
       <c r="F22">
-        <v>1.043521227962742</v>
+        <v>1.004772366306019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035073343995386</v>
+        <v>1.045272052368942</v>
       </c>
       <c r="J22">
-        <v>1.017605854878073</v>
+        <v>0.9778266543869901</v>
       </c>
       <c r="K22">
-        <v>1.046530585624628</v>
+        <v>1.035751645191599</v>
       </c>
       <c r="L22">
-        <v>1.016756119487359</v>
+        <v>0.9766558775620764</v>
       </c>
       <c r="M22">
-        <v>1.047201511275958</v>
+        <v>1.020249870840848</v>
       </c>
       <c r="N22">
-        <v>1.019050971913023</v>
+        <v>0.9792152803945047</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010998695535732</v>
+        <v>0.9467462006116444</v>
       </c>
       <c r="D23">
-        <v>1.043098143445499</v>
+        <v>1.021939012310994</v>
       </c>
       <c r="E23">
-        <v>1.013311488358428</v>
+        <v>0.9620792756966927</v>
       </c>
       <c r="F23">
-        <v>1.043864824445042</v>
+        <v>1.006563606785913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03511975619175</v>
+        <v>1.045688600372059</v>
       </c>
       <c r="J23">
-        <v>1.017888006472803</v>
+        <v>0.9792923050448636</v>
       </c>
       <c r="K23">
-        <v>1.046712282789473</v>
+        <v>1.036784983665004</v>
       </c>
       <c r="L23">
-        <v>1.017040422998756</v>
+        <v>0.9781100835809443</v>
       </c>
       <c r="M23">
-        <v>1.047476104841717</v>
+        <v>1.021696323822083</v>
       </c>
       <c r="N23">
-        <v>1.019333524195381</v>
+        <v>0.9806830124444246</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012647842419988</v>
+        <v>0.9555861085258524</v>
       </c>
       <c r="D24">
-        <v>1.044082924048791</v>
+        <v>1.02717553934542</v>
       </c>
       <c r="E24">
-        <v>1.014713898971354</v>
+        <v>0.9690940899069604</v>
       </c>
       <c r="F24">
-        <v>1.04521755677642</v>
+        <v>1.013451250474833</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03529903863405</v>
+        <v>1.047265016093934</v>
       </c>
       <c r="J24">
-        <v>1.018998686156719</v>
+        <v>0.9849079397306419</v>
       </c>
       <c r="K24">
-        <v>1.04742501905417</v>
+        <v>1.04074165692242</v>
       </c>
       <c r="L24">
-        <v>1.018159962224898</v>
+        <v>0.9836865927677032</v>
       </c>
       <c r="M24">
-        <v>1.048555764102107</v>
+        <v>1.027246194264205</v>
       </c>
       <c r="N24">
-        <v>1.020445781171845</v>
+        <v>0.9863066219755789</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014563555161645</v>
+        <v>0.9653803539976977</v>
       </c>
       <c r="D25">
-        <v>1.045223495524088</v>
+        <v>1.03300908583414</v>
       </c>
       <c r="E25">
-        <v>1.016344716402859</v>
+        <v>0.9769085811682192</v>
       </c>
       <c r="F25">
-        <v>1.046787329498541</v>
+        <v>1.02112826352872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035499941805617</v>
+        <v>1.048968727956554</v>
       </c>
       <c r="J25">
-        <v>1.020287313863202</v>
+        <v>0.9911317427550714</v>
       </c>
       <c r="K25">
-        <v>1.048246700988321</v>
+        <v>1.04511571173331</v>
       </c>
       <c r="L25">
-        <v>1.019459670186604</v>
+        <v>0.9898762606261333</v>
       </c>
       <c r="M25">
-        <v>1.049805724413429</v>
+        <v>1.033407210980541</v>
       </c>
       <c r="N25">
-        <v>1.021736238877479</v>
+        <v>0.9925392635141833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9728598880125691</v>
+        <v>0.9508901524929876</v>
       </c>
       <c r="D2">
-        <v>1.037480445270876</v>
+        <v>1.038450796525809</v>
       </c>
       <c r="E2">
-        <v>0.9829065794497395</v>
+        <v>0.9635203106119786</v>
       </c>
       <c r="F2">
-        <v>1.027018919958186</v>
+        <v>1.004991339286172</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050231569409074</v>
+        <v>1.054494113191009</v>
       </c>
       <c r="J2">
-        <v>0.995883806846808</v>
+        <v>0.9746459659684089</v>
       </c>
       <c r="K2">
-        <v>1.048441191987572</v>
+        <v>1.049399231956394</v>
       </c>
       <c r="L2">
-        <v>0.9946093036981342</v>
+        <v>0.9755123984521316</v>
       </c>
       <c r="M2">
-        <v>1.038114246573692</v>
+        <v>1.016381572066582</v>
       </c>
       <c r="N2">
-        <v>0.9972980760819998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9943818553668496</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.021537049939556</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045999786240922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9781163570436706</v>
+        <v>0.9585209429293535</v>
       </c>
       <c r="D3">
-        <v>1.04062836380666</v>
+        <v>1.040418638782759</v>
       </c>
       <c r="E3">
-        <v>0.9871378287263084</v>
+        <v>0.9698368370489693</v>
       </c>
       <c r="F3">
-        <v>1.031171082119954</v>
+        <v>1.009715773465408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051095155832594</v>
+        <v>1.055312675380868</v>
       </c>
       <c r="J3">
-        <v>0.9992219064385593</v>
+        <v>0.9802099904063298</v>
       </c>
       <c r="K3">
-        <v>1.050766505588809</v>
+        <v>1.050559211741463</v>
       </c>
       <c r="L3">
-        <v>0.9979379725027829</v>
+        <v>0.9808707850953818</v>
       </c>
       <c r="M3">
-        <v>1.041420072529331</v>
+        <v>1.020225830356962</v>
       </c>
       <c r="N3">
-        <v>1.000640916158057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9963990123962077</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.024579598662588</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046817335767115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.981442469364199</v>
+        <v>0.96330095659298</v>
       </c>
       <c r="D4">
-        <v>1.042621599478404</v>
+        <v>1.041657697158464</v>
       </c>
       <c r="E4">
-        <v>0.9898221381524754</v>
+        <v>0.9738008942175485</v>
       </c>
       <c r="F4">
-        <v>1.033802960939703</v>
+        <v>1.012679568708978</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051629974416332</v>
+        <v>1.0558074617808</v>
       </c>
       <c r="J4">
-        <v>1.001333093385241</v>
+        <v>0.9836924105409293</v>
       </c>
       <c r="K4">
-        <v>1.05223145704742</v>
+        <v>1.051278061115733</v>
       </c>
       <c r="L4">
-        <v>1.000044973230103</v>
+        <v>0.9842261536244323</v>
       </c>
       <c r="M4">
-        <v>1.043509838461192</v>
+        <v>1.0226273337592</v>
       </c>
       <c r="N4">
-        <v>1.002755101232359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.9976591682048219</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.026480268168535</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047326499451011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9828235302226046</v>
+        <v>0.9652745246274381</v>
       </c>
       <c r="D5">
-        <v>1.043449375676996</v>
+        <v>1.042170843437844</v>
       </c>
       <c r="E5">
-        <v>0.9909383060758539</v>
+        <v>0.9754394940644144</v>
       </c>
       <c r="F5">
-        <v>1.03489668720174</v>
+        <v>1.013898073905791</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05184916909438</v>
+        <v>1.056005827045709</v>
       </c>
       <c r="J5">
-        <v>1.0022093981203</v>
+        <v>0.9851293169331261</v>
       </c>
       <c r="K5">
-        <v>1.052838049138095</v>
+        <v>1.051573085394818</v>
       </c>
       <c r="L5">
-        <v>1.000919961695255</v>
+        <v>0.9856113658333476</v>
       </c>
       <c r="M5">
-        <v>1.044376908703538</v>
+        <v>1.023611137630581</v>
       </c>
       <c r="N5">
-        <v>1.003632650420655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.9981792057017802</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.02725889806855</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047542200052169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9830544269247183</v>
+        <v>0.9656032971830733</v>
       </c>
       <c r="D6">
-        <v>1.043587773758527</v>
+        <v>1.042256817405657</v>
       </c>
       <c r="E6">
-        <v>0.9911250077996228</v>
+        <v>0.975712917559367</v>
       </c>
       <c r="F6">
-        <v>1.035079594673503</v>
+        <v>1.014093916719411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05188564467283</v>
+        <v>1.05603686593226</v>
       </c>
       <c r="J6">
-        <v>1.002355886889944</v>
+        <v>0.9853684967469539</v>
       </c>
       <c r="K6">
-        <v>1.052939361176656</v>
+        <v>1.051622465757442</v>
       </c>
       <c r="L6">
-        <v>1.001066255052127</v>
+        <v>0.9858423872724226</v>
       </c>
       <c r="M6">
-        <v>1.044521830739864</v>
+        <v>1.023767749365264</v>
       </c>
       <c r="N6">
-        <v>1.003779347221155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.9982665529358632</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.027382848077942</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04758577204874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9814609899221221</v>
+        <v>0.9633258402151514</v>
       </c>
       <c r="D7">
-        <v>1.042632699908274</v>
+        <v>1.041664820851868</v>
       </c>
       <c r="E7">
-        <v>0.9898371001754507</v>
+        <v>0.9738225367446609</v>
       </c>
       <c r="F7">
-        <v>1.033817624792471</v>
+        <v>1.012675201018973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05163292535365</v>
+        <v>1.055804975882081</v>
       </c>
       <c r="J7">
-        <v>1.00134484620464</v>
+        <v>0.9837101353752613</v>
       </c>
       <c r="K7">
-        <v>1.052239598507186</v>
+        <v>1.051282265452214</v>
       </c>
       <c r="L7">
-        <v>1.000056706737515</v>
+        <v>0.9842444054218766</v>
       </c>
       <c r="M7">
-        <v>1.04352146891594</v>
+        <v>1.02262006624143</v>
       </c>
       <c r="N7">
-        <v>1.00276687074211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.9976678273791314</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.02647451630067</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047349381047912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9746523738606054</v>
+        <v>0.9535007075792182</v>
       </c>
       <c r="D8">
-        <v>1.038553513985104</v>
+        <v>1.039120982138989</v>
       </c>
       <c r="E8">
-        <v>0.9843479653884553</v>
+        <v>0.9656809374380326</v>
       </c>
       <c r="F8">
-        <v>1.028433776086721</v>
+        <v>1.006579758785758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050528448217642</v>
+        <v>1.054770007071551</v>
       </c>
       <c r="J8">
-        <v>0.9970223087702555</v>
+        <v>0.9765494663326804</v>
       </c>
       <c r="K8">
-        <v>1.049235399247163</v>
+        <v>1.049795879666144</v>
       </c>
       <c r="L8">
-        <v>0.9957442122468331</v>
+        <v>0.9773467632493724</v>
       </c>
       <c r="M8">
-        <v>1.039241890122473</v>
+        <v>1.017671334632438</v>
       </c>
       <c r="N8">
-        <v>0.9984381948087667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9950753836520597</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.022557837572353</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046302919097591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.962042367399762</v>
+        <v>0.9348701881236141</v>
       </c>
       <c r="D9">
-        <v>1.031017765856664</v>
+        <v>1.034370720108828</v>
       </c>
       <c r="E9">
-        <v>0.9742402871337181</v>
+        <v>0.9503073733648346</v>
       </c>
       <c r="F9">
-        <v>1.018506866368047</v>
+        <v>0.9951125848173015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048393876814762</v>
+        <v>1.052682632984287</v>
       </c>
       <c r="J9">
-        <v>0.9890105816847395</v>
+        <v>0.9629527936846796</v>
       </c>
       <c r="K9">
-        <v>1.043626876810063</v>
+        <v>1.046929726236139</v>
       </c>
       <c r="L9">
-        <v>0.9877655974578544</v>
+        <v>0.9642616429979683</v>
       </c>
       <c r="M9">
-        <v>1.031306652596539</v>
+        <v>1.008285457766148</v>
       </c>
       <c r="N9">
-        <v>0.990415090151831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9901313619788159</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.015129312926705</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044273260859786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9531686556326578</v>
+        <v>0.9215433579021003</v>
       </c>
       <c r="D10">
-        <v>1.025740495754779</v>
+        <v>1.031006010327314</v>
       </c>
       <c r="E10">
-        <v>0.9671721532842568</v>
+        <v>0.9393867585315502</v>
       </c>
       <c r="F10">
-        <v>1.011563551459635</v>
+        <v>0.9871220572018475</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046837159940624</v>
+        <v>1.051127752059283</v>
       </c>
       <c r="J10">
-        <v>0.9833719524995603</v>
+        <v>0.9532569655973797</v>
       </c>
       <c r="K10">
-        <v>1.039660046720217</v>
+        <v>1.044837133699351</v>
       </c>
       <c r="L10">
-        <v>0.9821605473061499</v>
+        <v>0.9549440054276649</v>
       </c>
       <c r="M10">
-        <v>1.025727114681907</v>
+        <v>1.001727785954451</v>
       </c>
       <c r="N10">
-        <v>0.9847684534664494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9866210714810554</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.009992423292588</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042810343161695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9492017656514296</v>
+        <v>0.9167419149268184</v>
       </c>
       <c r="D11">
-        <v>1.023390488854</v>
+        <v>1.029454419284226</v>
       </c>
       <c r="E11">
-        <v>0.9640242374307423</v>
+        <v>0.9356417648191759</v>
       </c>
       <c r="F11">
-        <v>1.008472620848677</v>
+        <v>0.985443138930035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046129655896323</v>
+        <v>1.050676509723945</v>
       </c>
       <c r="J11">
-        <v>0.9808519101769498</v>
+        <v>0.9500411063473122</v>
       </c>
       <c r="K11">
-        <v>1.037884376538976</v>
+        <v>1.043841454003331</v>
       </c>
       <c r="L11">
-        <v>0.9796580627842905</v>
+        <v>0.9518887750562981</v>
       </c>
       <c r="M11">
-        <v>1.023236505414136</v>
+        <v>1.000644898609143</v>
       </c>
       <c r="N11">
-        <v>0.9822448323946879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9856696519726624</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.009586671059344</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042138891774502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9477082935625858</v>
+        <v>0.9153001480097185</v>
       </c>
       <c r="D12">
-        <v>1.022507397603377</v>
+        <v>1.028810355774695</v>
       </c>
       <c r="E12">
-        <v>0.9628409817399284</v>
+        <v>0.9346042970530669</v>
       </c>
       <c r="F12">
-        <v>1.00731115772003</v>
+        <v>0.9854504060638339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045861673880923</v>
+        <v>1.050601414339844</v>
       </c>
       <c r="J12">
-        <v>0.9799033247033999</v>
+        <v>0.9491783251507855</v>
       </c>
       <c r="K12">
-        <v>1.037215732176244</v>
+        <v>1.043405654653873</v>
       </c>
       <c r="L12">
-        <v>0.9787164801090091</v>
+        <v>0.9511016134188409</v>
       </c>
       <c r="M12">
-        <v>1.02229961525847</v>
+        <v>1.00086176468193</v>
       </c>
       <c r="N12">
-        <v>0.981294899820961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9855383342271111</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.010094614020447</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041830772936217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9480295749800884</v>
+        <v>0.9163771301277998</v>
       </c>
       <c r="D13">
-        <v>1.022697292419191</v>
+        <v>1.028820384222149</v>
       </c>
       <c r="E13">
-        <v>0.963095441197098</v>
+        <v>0.935599213350962</v>
       </c>
       <c r="F13">
-        <v>1.007560911101293</v>
+        <v>0.9867526354434919</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045919394204982</v>
+        <v>1.050805838469784</v>
       </c>
       <c r="J13">
-        <v>0.9801073790529752</v>
+        <v>0.9500890962891217</v>
       </c>
       <c r="K13">
-        <v>1.037359575804474</v>
+        <v>1.043373251706672</v>
       </c>
       <c r="L13">
-        <v>0.9789190100909301</v>
+        <v>0.9520251590070841</v>
       </c>
       <c r="M13">
-        <v>1.022501123229687</v>
+        <v>1.002093208557558</v>
       </c>
       <c r="N13">
-        <v>0.9814992439511178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9860367484857221</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.011352203484982</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041805393234376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9490787304578436</v>
+        <v>0.9182409526084232</v>
       </c>
       <c r="D14">
-        <v>1.023317702877591</v>
+        <v>1.029117822114981</v>
       </c>
       <c r="E14">
-        <v>0.9639267195138618</v>
+        <v>0.9371892645207042</v>
       </c>
       <c r="F14">
-        <v>1.008376890409196</v>
+        <v>0.9882167377672639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046107611131078</v>
+        <v>1.051067619971597</v>
       </c>
       <c r="J14">
-        <v>0.9807737599009119</v>
+        <v>0.9515014624564038</v>
       </c>
       <c r="K14">
-        <v>1.037829293662501</v>
+        <v>1.043527022618308</v>
       </c>
       <c r="L14">
-        <v>0.9795804813784862</v>
+        <v>0.9534202461249425</v>
       </c>
       <c r="M14">
-        <v>1.023159305181218</v>
+        <v>1.003381609360315</v>
       </c>
       <c r="N14">
-        <v>0.982166571136294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9866601198675756</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.012547746276558</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04191552419957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9497224602112057</v>
+        <v>0.9192558453124547</v>
       </c>
       <c r="D15">
-        <v>1.02369859367959</v>
+        <v>1.029333798304662</v>
       </c>
       <c r="E15">
-        <v>0.9644370183540089</v>
+        <v>0.9380311011622916</v>
       </c>
       <c r="F15">
-        <v>1.008877851795644</v>
+        <v>0.98888155074164</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046222885926879</v>
+        <v>1.051192504512624</v>
       </c>
       <c r="J15">
-        <v>0.9811826556808549</v>
+        <v>0.9522469498490448</v>
       </c>
       <c r="K15">
-        <v>1.038117487533369</v>
+        <v>1.043653965337123</v>
       </c>
       <c r="L15">
-        <v>0.9799864168351263</v>
+        <v>0.9541455172342346</v>
       </c>
       <c r="M15">
-        <v>1.023563256262335</v>
+        <v>1.003943122655922</v>
       </c>
       <c r="N15">
-        <v>0.9825760475951454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9869544428449677</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.013029817281573</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042011094614837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9534291944660315</v>
+        <v>0.9247655274439396</v>
       </c>
       <c r="D16">
-        <v>1.025895053349557</v>
+        <v>1.030770094227237</v>
       </c>
       <c r="E16">
-        <v>0.9673791580957714</v>
+        <v>0.9425050600477719</v>
       </c>
       <c r="F16">
-        <v>1.011766851524061</v>
+        <v>0.9920830200874549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046883396807317</v>
+        <v>1.051829826453782</v>
       </c>
       <c r="J16">
-        <v>0.983537484281516</v>
+        <v>0.9562308173422706</v>
       </c>
       <c r="K16">
-        <v>1.039776639302541</v>
+        <v>1.044570040642543</v>
       </c>
       <c r="L16">
-        <v>0.9823249797140107</v>
+        <v>0.9579562476791841</v>
       </c>
       <c r="M16">
-        <v>1.02589078944471</v>
+        <v>1.006559601671512</v>
       </c>
       <c r="N16">
-        <v>0.9849342203225221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.988357982511163</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.015058366969461</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042661921613211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9557201216974673</v>
+        <v>0.9280073435729992</v>
       </c>
       <c r="D17">
-        <v>1.027255153344368</v>
+        <v>1.031716908692055</v>
       </c>
       <c r="E17">
-        <v>0.9692007130558176</v>
+        <v>0.9451019272395014</v>
       </c>
       <c r="F17">
-        <v>1.013555983640564</v>
+        <v>0.9937644936225398</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047288656872753</v>
+        <v>1.052178177114428</v>
       </c>
       <c r="J17">
-        <v>0.984993092568335</v>
+        <v>0.9585437576751489</v>
       </c>
       <c r="K17">
-        <v>1.040801601068615</v>
+        <v>1.045190776490145</v>
       </c>
       <c r="L17">
-        <v>0.9837712115628995</v>
+        <v>0.9601462263484432</v>
       </c>
       <c r="M17">
-        <v>1.027330430100516</v>
+        <v>1.007882744377748</v>
       </c>
       <c r="N17">
-        <v>0.9863918957400688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9891071530624831</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.015972614334889</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043103361513058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9570444595202467</v>
+        <v>0.9295831236138185</v>
       </c>
       <c r="D18">
-        <v>1.028042244845754</v>
+        <v>1.032330460554956</v>
       </c>
       <c r="E18">
-        <v>0.9702548268408051</v>
+        <v>0.9463002056593421</v>
       </c>
       <c r="F18">
-        <v>1.014591455711986</v>
+        <v>0.994206786898536</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047521823634119</v>
+        <v>1.052309206755694</v>
       </c>
       <c r="J18">
-        <v>0.9858346053049966</v>
+        <v>0.9595983127754605</v>
       </c>
       <c r="K18">
-        <v>1.041393873303929</v>
+        <v>1.045613525989468</v>
       </c>
       <c r="L18">
-        <v>0.9846075443495829</v>
+        <v>0.9611150507756668</v>
       </c>
       <c r="M18">
-        <v>1.028162986802784</v>
+        <v>1.008126273678882</v>
       </c>
       <c r="N18">
-        <v>0.9872346035213393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9893477110889093</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.015922136623572</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043390723392137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9574940396823979</v>
+        <v>0.9295477455358064</v>
       </c>
       <c r="D19">
-        <v>1.02830957857117</v>
+        <v>1.032585710697705</v>
       </c>
       <c r="E19">
-        <v>0.970612857757694</v>
+        <v>0.9461491073836298</v>
       </c>
       <c r="F19">
-        <v>1.014943170805021</v>
+        <v>0.9933726276733297</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047600786894587</v>
+        <v>1.052212296168624</v>
       </c>
       <c r="J19">
-        <v>0.9861202854938701</v>
+        <v>0.9594124997518306</v>
       </c>
       <c r="K19">
-        <v>1.041594888642881</v>
+        <v>1.045803059026299</v>
       </c>
       <c r="L19">
-        <v>0.9848915065628405</v>
+        <v>0.9608970119490823</v>
       </c>
       <c r="M19">
-        <v>1.028445668579946</v>
+        <v>1.007241583665028</v>
       </c>
       <c r="N19">
-        <v>0.9875206894088493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9891112568622018</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.014888650402345</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043531060046452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9554755688959082</v>
+        <v>0.9250386429219375</v>
       </c>
       <c r="D20">
-        <v>1.027109875161817</v>
+        <v>1.031864302126543</v>
       </c>
       <c r="E20">
-        <v>0.9690061489757293</v>
+        <v>0.9422502121643415</v>
       </c>
       <c r="F20">
-        <v>1.013364869031478</v>
+        <v>0.9891521703688467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047245509921665</v>
+        <v>1.051516220894753</v>
       </c>
       <c r="J20">
-        <v>0.984837702437853</v>
+        <v>0.9557997786462571</v>
       </c>
       <c r="K20">
-        <v>1.04069221112907</v>
+        <v>1.045369077956438</v>
       </c>
       <c r="L20">
-        <v>0.9836167973346521</v>
+        <v>0.9573906740921843</v>
       </c>
       <c r="M20">
-        <v>1.027176714884181</v>
+        <v>1.003388485968585</v>
       </c>
       <c r="N20">
-        <v>0.9862362849377783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9875500977452514</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.011295817603769</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043228098100029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1440,105 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9487703431020057</v>
+        <v>0.914557396475454</v>
       </c>
       <c r="D21">
-        <v>1.023135292573735</v>
+        <v>1.029317440242232</v>
       </c>
       <c r="E21">
-        <v>0.9636823218870586</v>
+        <v>0.9336522347876692</v>
       </c>
       <c r="F21">
-        <v>1.008136979104021</v>
+        <v>0.9826732854501805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046052330376066</v>
+        <v>1.050249688807108</v>
       </c>
       <c r="J21">
-        <v>0.9805778794782151</v>
+        <v>0.9481191536032421</v>
       </c>
       <c r="K21">
-        <v>1.037691227234713</v>
+        <v>1.043763887162723</v>
       </c>
       <c r="L21">
-        <v>0.9793860331832919</v>
+        <v>0.9500099191402098</v>
       </c>
       <c r="M21">
-        <v>1.022965816494589</v>
+        <v>0.9979905248812221</v>
       </c>
       <c r="N21">
-        <v>0.9819704125409288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9847286490377184</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.006981212075459</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042096379286085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9444381095045051</v>
+        <v>0.9077559466849714</v>
       </c>
       <c r="D22">
-        <v>1.020577092464799</v>
+        <v>1.027680484303727</v>
       </c>
       <c r="E22">
-        <v>0.9602536627205414</v>
+        <v>0.9280981525927107</v>
       </c>
       <c r="F22">
-        <v>1.004772366306019</v>
+        <v>0.9786033585338295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045272052368942</v>
+        <v>1.049438205398694</v>
       </c>
       <c r="J22">
-        <v>0.9778266543869901</v>
+        <v>0.943155795232256</v>
       </c>
       <c r="K22">
-        <v>1.035751645191599</v>
+        <v>1.042722831491062</v>
       </c>
       <c r="L22">
-        <v>0.9766558775620764</v>
+        <v>0.9452425204426324</v>
       </c>
       <c r="M22">
-        <v>1.020249870840848</v>
+        <v>0.9946109470214508</v>
       </c>
       <c r="N22">
-        <v>0.9792152803945047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9829132330392626</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.004306364736266</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041346943730647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9467462006116444</v>
+        <v>0.9113941143675148</v>
       </c>
       <c r="D23">
-        <v>1.021939012310994</v>
+        <v>1.02856064473333</v>
       </c>
       <c r="E23">
-        <v>0.9620792756966927</v>
+        <v>0.9310662727527559</v>
       </c>
       <c r="F23">
-        <v>1.006563606785913</v>
+        <v>0.9808033439777973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045688600372059</v>
+        <v>1.049883093954741</v>
       </c>
       <c r="J23">
-        <v>0.9792923050448636</v>
+        <v>0.9458111217140742</v>
       </c>
       <c r="K23">
-        <v>1.036784983665004</v>
+        <v>1.043286556818976</v>
       </c>
       <c r="L23">
-        <v>0.9781100835809443</v>
+        <v>0.9477912475080364</v>
       </c>
       <c r="M23">
-        <v>1.021696323822083</v>
+        <v>0.9964430464252273</v>
       </c>
       <c r="N23">
-        <v>0.9806830124444246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9838818778130131</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.005756424820309</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04173597286942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9555861085258524</v>
+        <v>0.9250856149719916</v>
       </c>
       <c r="D24">
-        <v>1.02717553934542</v>
+        <v>1.031916275146263</v>
       </c>
       <c r="E24">
-        <v>0.9690940899069604</v>
+        <v>0.9422709695286168</v>
       </c>
       <c r="F24">
-        <v>1.013451250474833</v>
+        <v>0.9890977196476416</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047265016093934</v>
+        <v>1.051522879779032</v>
       </c>
       <c r="J24">
-        <v>0.9849079397306419</v>
+        <v>0.955807034014071</v>
       </c>
       <c r="K24">
-        <v>1.04074165692242</v>
+        <v>1.04540516614419</v>
       </c>
       <c r="L24">
-        <v>0.9836865927677032</v>
+        <v>0.9573938436482291</v>
       </c>
       <c r="M24">
-        <v>1.027246194264205</v>
+        <v>1.003319035351781</v>
       </c>
       <c r="N24">
-        <v>0.9863066219755789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9875304694760938</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.011198565721378</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043226476384526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9653803539976977</v>
+        <v>0.939856645492007</v>
       </c>
       <c r="D25">
-        <v>1.03300908583414</v>
+        <v>1.035625261483464</v>
       </c>
       <c r="E25">
-        <v>0.9769085811682192</v>
+        <v>0.9544152462245743</v>
       </c>
       <c r="F25">
-        <v>1.02112826352872</v>
+        <v>0.9981347996989284</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048968727956554</v>
+        <v>1.053242686197846</v>
       </c>
       <c r="J25">
-        <v>0.9911317427550714</v>
+        <v>0.9665926205134374</v>
       </c>
       <c r="K25">
-        <v>1.04511571173331</v>
+        <v>1.047694613784726</v>
       </c>
       <c r="L25">
-        <v>0.9898762606261333</v>
+        <v>0.967764981040647</v>
       </c>
       <c r="M25">
-        <v>1.033407210980541</v>
+        <v>1.010762139669772</v>
       </c>
       <c r="N25">
-        <v>0.9925392635141833</v>
+        <v>0.9914607238432961</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.017089509996257</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044842370690406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9508901524929876</v>
+        <v>0.955069486085829</v>
       </c>
       <c r="D2">
-        <v>1.038450796525809</v>
+        <v>1.035698241336024</v>
       </c>
       <c r="E2">
-        <v>0.9635203106119786</v>
+        <v>0.9670408126890785</v>
       </c>
       <c r="F2">
-        <v>1.004991339286172</v>
+        <v>1.007556929727338</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054494113191009</v>
+        <v>1.053573041165546</v>
       </c>
       <c r="J2">
-        <v>0.9746459659684089</v>
+        <v>0.9786824533260421</v>
       </c>
       <c r="K2">
-        <v>1.049399231956394</v>
+        <v>1.046681674755624</v>
       </c>
       <c r="L2">
-        <v>0.9755123984521316</v>
+        <v>0.9789792542400673</v>
       </c>
       <c r="M2">
-        <v>1.016381572066582</v>
+        <v>1.018911978963508</v>
       </c>
       <c r="N2">
-        <v>0.9943818553668496</v>
+        <v>1.000520997844802</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.021537049939556</v>
+        <v>1.023539748928498</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045999786240922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044086965678029</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02405592016494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9585209429293535</v>
+        <v>0.9622963240561432</v>
       </c>
       <c r="D3">
-        <v>1.040418638782759</v>
+        <v>1.037394107873675</v>
       </c>
       <c r="E3">
-        <v>0.9698368370489693</v>
+        <v>0.9730230854191009</v>
       </c>
       <c r="F3">
-        <v>1.009715773465408</v>
+        <v>1.011956377519099</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055312675380868</v>
+        <v>1.054211134368107</v>
       </c>
       <c r="J3">
-        <v>0.9802099904063298</v>
+        <v>0.9838704046669723</v>
       </c>
       <c r="K3">
-        <v>1.050559211741463</v>
+        <v>1.047569877023592</v>
       </c>
       <c r="L3">
-        <v>0.9808707850953818</v>
+        <v>0.9840131880902786</v>
       </c>
       <c r="M3">
-        <v>1.020225830356962</v>
+        <v>1.022438526268897</v>
       </c>
       <c r="N3">
-        <v>0.9963990123962077</v>
+        <v>1.002041821834828</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.024579598662588</v>
+        <v>1.02633083670039</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046817335767115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044712074924608</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02426042768675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.96330095659298</v>
+        <v>0.9668308353840851</v>
       </c>
       <c r="D4">
-        <v>1.041657697158464</v>
+        <v>1.038465599225114</v>
       </c>
       <c r="E4">
-        <v>0.9738008942175485</v>
+        <v>0.9767835266171072</v>
       </c>
       <c r="F4">
-        <v>1.012679568708978</v>
+        <v>1.014722568470835</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.0558074617808</v>
+        <v>1.054594843496442</v>
       </c>
       <c r="J4">
-        <v>0.9836924105409293</v>
+        <v>0.9871228284085706</v>
       </c>
       <c r="K4">
-        <v>1.051278061115733</v>
+        <v>1.048120927615354</v>
       </c>
       <c r="L4">
-        <v>0.9842261536244323</v>
+        <v>0.9871704726210832</v>
       </c>
       <c r="M4">
-        <v>1.0226273337592</v>
+        <v>1.024646493964911</v>
       </c>
       <c r="N4">
-        <v>0.9976591682048219</v>
+        <v>1.002993258169328</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.026480268168535</v>
+        <v>1.028078328124037</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047326499451011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045102679387833</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024381988773688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9652745246274381</v>
+        <v>0.9687052995060053</v>
       </c>
       <c r="D5">
-        <v>1.042170843437844</v>
+        <v>1.038912206913513</v>
       </c>
       <c r="E5">
-        <v>0.9754394940644144</v>
+        <v>0.9783397739035271</v>
       </c>
       <c r="F5">
-        <v>1.013898073905791</v>
+        <v>1.015863582195227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056005827045709</v>
+        <v>1.054749393153254</v>
       </c>
       <c r="J5">
-        <v>0.9851293169331261</v>
+        <v>0.9884665998250217</v>
       </c>
       <c r="K5">
-        <v>1.051573085394818</v>
+        <v>1.048349216320716</v>
       </c>
       <c r="L5">
-        <v>0.9856113658333476</v>
+        <v>0.9884754798120755</v>
       </c>
       <c r="M5">
-        <v>1.023611137630581</v>
+        <v>1.025554348295334</v>
       </c>
       <c r="N5">
-        <v>0.9981792057017802</v>
+        <v>1.003386235480622</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.02725889806855</v>
+        <v>1.028796846250497</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047542200052169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04527191436398</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024429599427106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9656032971830733</v>
+        <v>0.969018402109558</v>
       </c>
       <c r="D6">
-        <v>1.042256817405657</v>
+        <v>1.038989518028239</v>
       </c>
       <c r="E6">
-        <v>0.975712917559367</v>
+        <v>0.9786001042200346</v>
       </c>
       <c r="F6">
-        <v>1.014093916719411</v>
+        <v>1.016049907263238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05603686593226</v>
+        <v>1.054775065933779</v>
       </c>
       <c r="J6">
-        <v>0.9853684967469539</v>
+        <v>0.9886910616909732</v>
       </c>
       <c r="K6">
-        <v>1.051622465757442</v>
+        <v>1.048389870892145</v>
       </c>
       <c r="L6">
-        <v>0.9858423872724226</v>
+        <v>0.9886937520067864</v>
       </c>
       <c r="M6">
-        <v>1.023767749365264</v>
+        <v>1.025701655809747</v>
       </c>
       <c r="N6">
-        <v>0.9982665529358632</v>
+        <v>1.00345232372081</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.027382848077942</v>
+        <v>1.028913432195699</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04758577204874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045310196329244</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024436267011805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9633258402151514</v>
+        <v>0.9668816063696667</v>
       </c>
       <c r="D7">
-        <v>1.041664820851868</v>
+        <v>1.038478846325052</v>
       </c>
       <c r="E7">
-        <v>0.9738225367446609</v>
+        <v>0.9768294286824641</v>
       </c>
       <c r="F7">
-        <v>1.012675201018973</v>
+        <v>1.014738946792131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055804975882081</v>
+        <v>1.054598665063678</v>
       </c>
       <c r="J7">
-        <v>0.9837101353752613</v>
+        <v>0.9871657589779583</v>
       </c>
       <c r="K7">
-        <v>1.051282265452214</v>
+        <v>1.048131175841624</v>
       </c>
       <c r="L7">
-        <v>0.9842444054218766</v>
+        <v>0.9872126887490477</v>
       </c>
       <c r="M7">
-        <v>1.02262006624143</v>
+        <v>1.024659738792525</v>
       </c>
       <c r="N7">
-        <v>0.9976678273791314</v>
+        <v>1.003035679410622</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.02647451630067</v>
+        <v>1.028088810701794</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047349381047912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045131856991898</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024379005019355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9535007075792182</v>
+        <v>0.9576219979229574</v>
       </c>
       <c r="D8">
-        <v>1.039120982138989</v>
+        <v>1.036285024314211</v>
       </c>
       <c r="E8">
-        <v>0.9656809374380326</v>
+        <v>0.9691631626644418</v>
       </c>
       <c r="F8">
-        <v>1.006579758785758</v>
+        <v>1.009085852593527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054770007071551</v>
+        <v>1.053799203994322</v>
       </c>
       <c r="J8">
-        <v>0.9765494663326804</v>
+        <v>0.9805352242649586</v>
       </c>
       <c r="K8">
-        <v>1.049795879666144</v>
+        <v>1.046994938669892</v>
       </c>
       <c r="L8">
-        <v>0.9773467632493724</v>
+        <v>0.9807777000414392</v>
       </c>
       <c r="M8">
-        <v>1.017671334632438</v>
+        <v>1.020144140836206</v>
       </c>
       <c r="N8">
-        <v>0.9950753836520597</v>
+        <v>1.001154034672353</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.022557837572353</v>
+        <v>1.024514945410443</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046302919097591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044333431910503</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024121185653847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9348701881236141</v>
+        <v>0.9400437913947721</v>
       </c>
       <c r="D9">
-        <v>1.034370720108828</v>
+        <v>1.032206162689281</v>
       </c>
       <c r="E9">
-        <v>0.9503073733648346</v>
+        <v>0.9546595824766632</v>
       </c>
       <c r="F9">
-        <v>0.9951125848173015</v>
+        <v>0.9984483547721662</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052682632984287</v>
+        <v>1.052158344223704</v>
       </c>
       <c r="J9">
-        <v>0.9629527936846796</v>
+        <v>0.9679071399806217</v>
       </c>
       <c r="K9">
-        <v>1.046929726236139</v>
+        <v>1.044797467469754</v>
       </c>
       <c r="L9">
-        <v>0.9642616429979683</v>
+        <v>0.9685337624914631</v>
       </c>
       <c r="M9">
-        <v>1.008285457766148</v>
+        <v>1.011566656601373</v>
       </c>
       <c r="N9">
-        <v>0.9901313619788159</v>
+        <v>0.9974529757605352</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.015129312926705</v>
+        <v>1.017726252496989</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044273260859786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042776272879535</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023590697492776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9215433579021003</v>
+        <v>0.9276703813052856</v>
       </c>
       <c r="D10">
-        <v>1.031006010327314</v>
+        <v>1.029352016377552</v>
       </c>
       <c r="E10">
-        <v>0.9393867585315502</v>
+        <v>0.9445393265139341</v>
       </c>
       <c r="F10">
-        <v>0.9871220572018475</v>
+        <v>0.9911837218033627</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051127752059283</v>
+        <v>1.050951223440382</v>
       </c>
       <c r="J10">
-        <v>0.9532569655973797</v>
+        <v>0.9590797513951975</v>
       </c>
       <c r="K10">
-        <v>1.044837133699351</v>
+        <v>1.043210790850501</v>
       </c>
       <c r="L10">
-        <v>0.9549440054276649</v>
+        <v>0.9599877412057458</v>
       </c>
       <c r="M10">
-        <v>1.001727785954451</v>
+        <v>1.005714002516211</v>
       </c>
       <c r="N10">
-        <v>0.9866210714810554</v>
+        <v>0.9950037737645211</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.009992423292588</v>
+        <v>1.013147169890963</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042810343161695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041672742899033</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023165592888205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9167419149268184</v>
+        <v>0.923571068116007</v>
       </c>
       <c r="D11">
-        <v>1.029454419284226</v>
+        <v>1.028121098978984</v>
       </c>
       <c r="E11">
-        <v>0.9356417648191759</v>
+        <v>0.9414041735227685</v>
       </c>
       <c r="F11">
-        <v>0.985443138930035</v>
+        <v>0.9901073012736354</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050676509723945</v>
+        <v>1.050718933902922</v>
       </c>
       <c r="J11">
-        <v>0.9500411063473122</v>
+        <v>0.956509318301957</v>
       </c>
       <c r="K11">
-        <v>1.043841454003331</v>
+        <v>1.042531488151913</v>
       </c>
       <c r="L11">
-        <v>0.9518887750562981</v>
+        <v>0.95752271023391</v>
       </c>
       <c r="M11">
-        <v>1.000644898609143</v>
+        <v>1.005218222321024</v>
       </c>
       <c r="N11">
-        <v>0.9856696519726624</v>
+        <v>0.9946732702221868</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.009586671059344</v>
+        <v>1.013204123288471</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042138891774502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041228205375603</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022865043239611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9153001480097185</v>
+        <v>0.9224703713316277</v>
       </c>
       <c r="D12">
-        <v>1.028810355774695</v>
+        <v>1.027636335126493</v>
       </c>
       <c r="E12">
-        <v>0.9346042970530669</v>
+        <v>0.9406615071223103</v>
       </c>
       <c r="F12">
-        <v>0.9854504060638339</v>
+        <v>0.9904291898956665</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050601414339844</v>
+        <v>1.050742382136939</v>
       </c>
       <c r="J12">
-        <v>0.9491783251507855</v>
+        <v>0.9559613134168513</v>
       </c>
       <c r="K12">
-        <v>1.043405654653873</v>
+        <v>1.042252552169697</v>
       </c>
       <c r="L12">
-        <v>0.9511016134188409</v>
+        <v>0.9570212400885931</v>
       </c>
       <c r="M12">
-        <v>1.00086176468193</v>
+        <v>1.005742077654622</v>
       </c>
       <c r="N12">
-        <v>0.9855383342271111</v>
+        <v>0.9947642611571504</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.010094614020447</v>
+        <v>1.013953508096008</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041830772936217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04103099570993</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022694969477208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9163771301277998</v>
+        <v>0.9235812972052233</v>
       </c>
       <c r="D13">
-        <v>1.028820384222149</v>
+        <v>1.027700585986226</v>
       </c>
       <c r="E13">
-        <v>0.935599213350962</v>
+        <v>0.9416806116806564</v>
       </c>
       <c r="F13">
-        <v>0.9867526354434919</v>
+        <v>0.9918270985978734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050805838469784</v>
+        <v>1.050963901829875</v>
       </c>
       <c r="J13">
-        <v>0.9500890962891217</v>
+        <v>0.9569069903752244</v>
       </c>
       <c r="K13">
-        <v>1.043373251706672</v>
+        <v>1.042273337150637</v>
       </c>
       <c r="L13">
-        <v>0.9520251590070841</v>
+        <v>0.9579692914437364</v>
       </c>
       <c r="M13">
-        <v>1.002093208557558</v>
+        <v>1.007068005064786</v>
       </c>
       <c r="N13">
-        <v>0.9860367484857221</v>
+        <v>0.9951383732289774</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.011352203484982</v>
+        <v>1.015284771546585</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041805393234376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041042978147226</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022613433571978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9182409526084232</v>
+        <v>0.9253368462879188</v>
       </c>
       <c r="D14">
-        <v>1.029117822114981</v>
+        <v>1.027992153189453</v>
       </c>
       <c r="E14">
-        <v>0.9371892645207042</v>
+        <v>0.9431722209286088</v>
       </c>
       <c r="F14">
-        <v>0.9882167377672639</v>
+        <v>0.9932657372760411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051067619971597</v>
+        <v>1.051203706858114</v>
       </c>
       <c r="J14">
-        <v>0.9515014624564038</v>
+        <v>0.9582236986616156</v>
       </c>
       <c r="K14">
-        <v>1.043527022618308</v>
+        <v>1.042421108166517</v>
       </c>
       <c r="L14">
-        <v>0.9534202461249425</v>
+        <v>0.9592702594955957</v>
       </c>
       <c r="M14">
-        <v>1.003381609360315</v>
+        <v>1.008332916495528</v>
       </c>
       <c r="N14">
-        <v>0.9866601198675756</v>
+        <v>0.9955242426955682</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.012547746276558</v>
+        <v>1.016461201491045</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04191552419957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041149003740496</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022593793433903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9192558453124547</v>
+        <v>0.9262603579529722</v>
       </c>
       <c r="D15">
-        <v>1.029333798304662</v>
+        <v>1.028186329719896</v>
       </c>
       <c r="E15">
-        <v>0.9380311011622916</v>
+        <v>0.9439334752549214</v>
       </c>
       <c r="F15">
-        <v>0.98888155074164</v>
+        <v>0.9938815977343125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051192504512624</v>
+        <v>1.051308447540934</v>
       </c>
       <c r="J15">
-        <v>0.9522469498490448</v>
+        <v>0.9588865479522543</v>
       </c>
       <c r="K15">
-        <v>1.043653965337123</v>
+        <v>1.042526486375568</v>
       </c>
       <c r="L15">
-        <v>0.9541455172342346</v>
+        <v>0.9599179509279168</v>
       </c>
       <c r="M15">
-        <v>1.003943122655922</v>
+        <v>1.008847252907006</v>
       </c>
       <c r="N15">
-        <v>0.9869544428449677</v>
+        <v>0.9956883792622796</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.013029817281573</v>
+        <v>1.016905880944348</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042011094614837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041229897341858</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02260759579401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9247655274439396</v>
+        <v>0.9311458781795998</v>
       </c>
       <c r="D16">
-        <v>1.030770094227237</v>
+        <v>1.029390549117212</v>
       </c>
       <c r="E16">
-        <v>0.9425050600477719</v>
+        <v>0.947866599585353</v>
       </c>
       <c r="F16">
-        <v>0.9920830200874549</v>
+        <v>0.99664115673686</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051829826453782</v>
+        <v>1.0517823101188</v>
       </c>
       <c r="J16">
-        <v>0.9562308173422706</v>
+        <v>0.9622986685737236</v>
       </c>
       <c r="K16">
-        <v>1.044570040642543</v>
+        <v>1.043213496908431</v>
       </c>
       <c r="L16">
-        <v>0.9579562476791841</v>
+        <v>0.9632058953829751</v>
       </c>
       <c r="M16">
-        <v>1.006559601671512</v>
+        <v>1.011034465176797</v>
       </c>
       <c r="N16">
-        <v>0.988357982511163</v>
+        <v>0.9964228146828573</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.015058366969461</v>
+        <v>1.018595260964178</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042661921613211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04171907229107</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022819852523209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9280073435729992</v>
+        <v>0.9340024082796857</v>
       </c>
       <c r="D17">
-        <v>1.031716908692055</v>
+        <v>1.030162788482933</v>
       </c>
       <c r="E17">
-        <v>0.9451019272395014</v>
+        <v>0.9501331550124769</v>
       </c>
       <c r="F17">
-        <v>0.9937644936225398</v>
+        <v>0.9980176870148602</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052178177114428</v>
+        <v>1.052018929686634</v>
       </c>
       <c r="J17">
-        <v>0.9585437576751489</v>
+        <v>0.9642563571143175</v>
       </c>
       <c r="K17">
-        <v>1.045190776490145</v>
+        <v>1.043661845700718</v>
       </c>
       <c r="L17">
-        <v>0.9601462263484432</v>
+        <v>0.9650759244061634</v>
       </c>
       <c r="M17">
-        <v>1.007882744377748</v>
+        <v>1.012060562861607</v>
       </c>
       <c r="N17">
-        <v>0.9891071530624831</v>
+        <v>0.9968230425613281</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.015972614334889</v>
+        <v>1.019275068075798</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043103361513058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042038879754543</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022990424701256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9295831236138185</v>
+        <v>0.9353181530867943</v>
       </c>
       <c r="D18">
-        <v>1.032330460554956</v>
+        <v>1.030628564258794</v>
       </c>
       <c r="E18">
-        <v>0.9463002056593421</v>
+        <v>0.9511099982570661</v>
       </c>
       <c r="F18">
-        <v>0.994206786898536</v>
+        <v>0.9982098098361886</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052309206755694</v>
+        <v>1.052063043530503</v>
       </c>
       <c r="J18">
-        <v>0.9595983127754605</v>
+        <v>0.965068968099199</v>
       </c>
       <c r="K18">
-        <v>1.045613525989468</v>
+        <v>1.043938753280012</v>
       </c>
       <c r="L18">
-        <v>0.9611150507756668</v>
+        <v>0.9658296015726614</v>
       </c>
       <c r="M18">
-        <v>1.008126273678882</v>
+        <v>1.012059516008272</v>
       </c>
       <c r="N18">
-        <v>0.9893477110889093</v>
+        <v>0.9969083201696147</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.015922136623572</v>
+        <v>1.019031934231755</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043390723392137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04222198953967</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023145222500411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9295477455358064</v>
+        <v>0.9351507616007566</v>
       </c>
       <c r="D19">
-        <v>1.032585710697705</v>
+        <v>1.030789741766374</v>
       </c>
       <c r="E19">
-        <v>0.9461491073836298</v>
+        <v>0.950846826936096</v>
       </c>
       <c r="F19">
-        <v>0.9933726276733297</v>
+        <v>0.9972081597750552</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052212296168624</v>
+        <v>1.051917426952027</v>
       </c>
       <c r="J19">
-        <v>0.9594124997518306</v>
+        <v>0.9647586868727062</v>
       </c>
       <c r="K19">
-        <v>1.045803059026299</v>
+        <v>1.04403554594219</v>
       </c>
       <c r="L19">
-        <v>0.9608970119490823</v>
+        <v>0.9655021632774047</v>
       </c>
       <c r="M19">
-        <v>1.007241583665028</v>
+        <v>1.011010455431142</v>
       </c>
       <c r="N19">
-        <v>0.9891112568622018</v>
+        <v>0.9966768196123948</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.014888650402345</v>
+        <v>1.01786951097124</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043531060046452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042297381580134</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023254752198258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9250386429219375</v>
+        <v>0.9308408835744629</v>
       </c>
       <c r="D20">
-        <v>1.031864302126543</v>
+        <v>1.030097277810922</v>
       </c>
       <c r="E20">
-        <v>0.9422502121643415</v>
+        <v>0.9471204536154358</v>
       </c>
       <c r="F20">
-        <v>0.9891521703688467</v>
+        <v>0.9930095518258905</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051516220894753</v>
+        <v>1.051259908384948</v>
       </c>
       <c r="J20">
-        <v>0.9557997786462571</v>
+        <v>0.9613251533480058</v>
       </c>
       <c r="K20">
-        <v>1.045369077956438</v>
+        <v>1.04363077213663</v>
       </c>
       <c r="L20">
-        <v>0.9573906740921843</v>
+        <v>0.9621615404247921</v>
       </c>
       <c r="M20">
-        <v>1.003388485968585</v>
+        <v>1.00717644373315</v>
       </c>
       <c r="N20">
-        <v>0.9875500977452514</v>
+        <v>0.9955525402500961</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.011295817603769</v>
+        <v>1.014293695097443</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043228098100029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04201545636859</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023263020947742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.914557396475454</v>
+        <v>0.9215014533414659</v>
       </c>
       <c r="D21">
-        <v>1.029317440242232</v>
+        <v>1.027936503309625</v>
       </c>
       <c r="E21">
-        <v>0.9336522347876692</v>
+        <v>0.9395285812766281</v>
       </c>
       <c r="F21">
-        <v>0.9826732854501805</v>
+        <v>0.9872919935864818</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050249688807108</v>
+        <v>1.05028388554954</v>
       </c>
       <c r="J21">
-        <v>0.9481191536032421</v>
+        <v>0.9546918240780576</v>
       </c>
       <c r="K21">
-        <v>1.043763887162723</v>
+        <v>1.042407258941625</v>
       </c>
       <c r="L21">
-        <v>0.9500099191402098</v>
+        <v>0.9557539121067581</v>
       </c>
       <c r="M21">
-        <v>0.9979905248812221</v>
+        <v>1.002518190063592</v>
       </c>
       <c r="N21">
-        <v>0.9847286490377184</v>
+        <v>0.9940686497905951</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.006981212075459</v>
+        <v>1.010564722849717</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042096379286085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041153915024244</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022938975404657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9077559466849714</v>
+        <v>0.9154719114276174</v>
       </c>
       <c r="D22">
-        <v>1.027680484303727</v>
+        <v>1.026548818841572</v>
       </c>
       <c r="E22">
-        <v>0.9280981525927107</v>
+        <v>0.9346555210139998</v>
       </c>
       <c r="F22">
-        <v>0.9786033585338295</v>
+        <v>0.9837359953500348</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049438205398694</v>
+        <v>1.04966116332977</v>
       </c>
       <c r="J22">
-        <v>0.943155795232256</v>
+        <v>0.9504290831441844</v>
       </c>
       <c r="K22">
-        <v>1.042722831491062</v>
+        <v>1.0416120684108</v>
       </c>
       <c r="L22">
-        <v>0.9452425204426324</v>
+        <v>0.9516429847818604</v>
       </c>
       <c r="M22">
-        <v>0.9946109470214508</v>
+        <v>0.999636680337907</v>
       </c>
       <c r="N22">
-        <v>0.9829132330392626</v>
+        <v>0.9931173958409368</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.004306364736266</v>
+        <v>1.008284096914438</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041346943730647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040577005798379</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022724696759015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9113941143675148</v>
+        <v>0.918644391868438</v>
       </c>
       <c r="D23">
-        <v>1.02856064473333</v>
+        <v>1.027286076077623</v>
       </c>
       <c r="E23">
-        <v>0.9310662727527559</v>
+        <v>0.9372087929745948</v>
       </c>
       <c r="F23">
-        <v>0.9808033439777973</v>
+        <v>0.9856200555754122</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049883093954741</v>
+        <v>1.049994133382978</v>
       </c>
       <c r="J23">
-        <v>0.9458111217140742</v>
+        <v>0.9526605621226795</v>
       </c>
       <c r="K23">
-        <v>1.043286556818976</v>
+        <v>1.04203494147541</v>
       </c>
       <c r="L23">
-        <v>0.9477912475080364</v>
+        <v>0.9537914030629154</v>
       </c>
       <c r="M23">
-        <v>0.9964430464252273</v>
+        <v>1.001162309399149</v>
       </c>
       <c r="N23">
-        <v>0.9838818778130131</v>
+        <v>0.9935643053350688</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.005756424820309</v>
+        <v>1.009491586197059</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04173597286942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040865505003054</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022847097920958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9250856149719916</v>
+        <v>0.930867241581262</v>
       </c>
       <c r="D24">
-        <v>1.031916275146263</v>
+        <v>1.030124035041036</v>
       </c>
       <c r="E24">
-        <v>0.9422709695286168</v>
+        <v>0.9471242088707182</v>
       </c>
       <c r="F24">
-        <v>0.9890977196476416</v>
+        <v>0.9929162991154128</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051522879779032</v>
+        <v>1.051248891804065</v>
       </c>
       <c r="J24">
-        <v>0.955807034014071</v>
+        <v>0.9613132051103843</v>
       </c>
       <c r="K24">
-        <v>1.04540516614419</v>
+        <v>1.043642014279504</v>
       </c>
       <c r="L24">
-        <v>0.9573938436482291</v>
+        <v>0.9621481880665858</v>
       </c>
       <c r="M24">
-        <v>1.003319035351781</v>
+        <v>1.007068965041656</v>
       </c>
       <c r="N24">
-        <v>0.9875304694760938</v>
+        <v>0.995528637266641</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.011198565721378</v>
+        <v>1.0141665042694</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043226476384526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041993583278342</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023284636672098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.939856645492007</v>
+        <v>0.9447107406886676</v>
       </c>
       <c r="D25">
-        <v>1.035625261483464</v>
+        <v>1.033290840374336</v>
       </c>
       <c r="E25">
-        <v>0.9544152462245743</v>
+        <v>0.9584993850207559</v>
       </c>
       <c r="F25">
-        <v>0.9981347996989284</v>
+        <v>1.001242251527579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053242686197846</v>
+        <v>1.052604858597216</v>
       </c>
       <c r="J25">
-        <v>0.9665926205134374</v>
+        <v>0.9712536651364825</v>
       </c>
       <c r="K25">
-        <v>1.047694613784726</v>
+        <v>1.045393440537777</v>
       </c>
       <c r="L25">
-        <v>0.967764981040647</v>
+        <v>0.9717780258781773</v>
       </c>
       <c r="M25">
-        <v>1.010762139669772</v>
+        <v>1.013821313701225</v>
       </c>
       <c r="N25">
-        <v>0.9914607238432961</v>
+        <v>0.9984031627815194</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.017089509996257</v>
+        <v>1.01951071883258</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044842370690406</v>
+        <v>1.043228778785325</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023729828006462</v>
       </c>
     </row>
   </sheetData>
